--- a/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.65994037497283</v>
+        <v>25.65994037497281</v>
       </c>
       <c r="C2">
-        <v>21.15078055405515</v>
+        <v>21.1507805540551</v>
       </c>
       <c r="D2">
-        <v>7.320292042536662</v>
+        <v>7.320292042536704</v>
       </c>
       <c r="E2">
-        <v>12.33637437076339</v>
+        <v>12.33637437076342</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.68678791942381</v>
+        <v>35.68678791942379</v>
       </c>
       <c r="H2">
-        <v>28.65728866673731</v>
+        <v>28.65728866673727</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.11109629812201</v>
+        <v>17.11109629812203</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.77864812884242</v>
+        <v>23.77864812884236</v>
       </c>
       <c r="C3">
-        <v>19.58002023364077</v>
+        <v>19.58002023364089</v>
       </c>
       <c r="D3">
-        <v>6.779581076309238</v>
+        <v>6.779581076309257</v>
       </c>
       <c r="E3">
-        <v>11.40496146821753</v>
+        <v>11.40496146821748</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>33.65072224780216</v>
       </c>
       <c r="H3">
-        <v>27.27500951977223</v>
+        <v>27.27500951977224</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.83986413658254</v>
+        <v>15.83986413658256</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>22.57112888153797</v>
       </c>
       <c r="C4">
-        <v>18.57403424749066</v>
+        <v>18.57403424749054</v>
       </c>
       <c r="D4">
-        <v>6.433157327853841</v>
+        <v>6.433157327853866</v>
       </c>
       <c r="E4">
-        <v>10.80996832711374</v>
+        <v>10.80996832711373</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.02686187086836</v>
+        <v>15.02686187086833</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.06547088198439</v>
+        <v>22.06547088198434</v>
       </c>
       <c r="C5">
-        <v>18.15326369655976</v>
+        <v>18.15326369655963</v>
       </c>
       <c r="D5">
-        <v>6.2882353166685</v>
+        <v>6.288235316668575</v>
       </c>
       <c r="E5">
-        <v>10.56144876633052</v>
+        <v>10.56144876633055</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.87614312350567</v>
+        <v>31.87614312350575</v>
       </c>
       <c r="H5">
-        <v>26.0901068604999</v>
+        <v>26.09010686049998</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.68707018417558</v>
+        <v>14.68707018417556</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,19 +570,19 @@
         <v>18.0827310234703</v>
       </c>
       <c r="D6">
-        <v>6.263941139772844</v>
+        <v>6.263941139772755</v>
       </c>
       <c r="E6">
-        <v>10.51980986849618</v>
+        <v>10.51980986849619</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.79044304791886</v>
+        <v>31.79044304791881</v>
       </c>
       <c r="H6">
-        <v>26.03340761467172</v>
+        <v>26.03340761467167</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56436491252201</v>
+        <v>22.56436491252194</v>
       </c>
       <c r="C7">
-        <v>18.56840388445305</v>
+        <v>18.56840388445304</v>
       </c>
       <c r="D7">
-        <v>6.431218204271643</v>
+        <v>6.431218204271699</v>
       </c>
       <c r="E7">
-        <v>10.80664152856453</v>
+        <v>10.80664152856454</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.38454776611175</v>
+        <v>32.38454776611165</v>
       </c>
       <c r="H7">
-        <v>26.42749771147463</v>
+        <v>26.42749771147456</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.02231408817344</v>
+        <v>15.02231408817346</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.0218865868952</v>
+        <v>25.02188658689509</v>
       </c>
       <c r="C8">
-        <v>20.61756111651863</v>
+        <v>20.61756111651864</v>
       </c>
       <c r="D8">
-        <v>7.136769981696776</v>
+        <v>7.136769981696724</v>
       </c>
       <c r="E8">
-        <v>12.0198613875173</v>
+        <v>12.01986138751728</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.98663664263807</v>
+        <v>34.98663664263803</v>
       </c>
       <c r="H8">
         <v>28.17944472026033</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.44635425929278</v>
+        <v>29.44635425929282</v>
       </c>
       <c r="C9">
-        <v>24.32601292548638</v>
+        <v>24.32601292548647</v>
       </c>
       <c r="D9">
-        <v>8.412275465322876</v>
+        <v>8.412275465322903</v>
       </c>
       <c r="E9">
-        <v>14.22841464663558</v>
+        <v>14.22841464663551</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.02301197181019</v>
+        <v>40.02301197181017</v>
       </c>
       <c r="H9">
-        <v>31.66666127392058</v>
+        <v>31.66666127392052</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.49080669677416</v>
+        <v>32.49080669677429</v>
       </c>
       <c r="C10">
-        <v>26.8938905307235</v>
+        <v>26.89389053072362</v>
       </c>
       <c r="D10">
-        <v>9.293906289717182</v>
+        <v>9.293906289717256</v>
       </c>
       <c r="E10">
-        <v>15.7680511840637</v>
+        <v>15.76805118406371</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.74404394702639</v>
+        <v>43.74404394702664</v>
       </c>
       <c r="H10">
-        <v>34.27821869990527</v>
+        <v>34.27821869990538</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.77902331819664</v>
+        <v>21.77902331819669</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.84062161509796</v>
+        <v>33.84062161509792</v>
       </c>
       <c r="C11">
-        <v>28.03708080893091</v>
+        <v>28.03708080893086</v>
       </c>
       <c r="D11">
-        <v>9.685822951518704</v>
+        <v>9.685822951518627</v>
       </c>
       <c r="E11">
-        <v>16.45635601915425</v>
+        <v>16.45635601915419</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.58728521627102</v>
+        <v>45.58728521627082</v>
       </c>
       <c r="H11">
-        <v>35.48463453665367</v>
+        <v>35.48463453665349</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.71219582206519</v>
+        <v>22.71219582206513</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.34771211788976</v>
+        <v>34.34771211788966</v>
       </c>
       <c r="C12">
-        <v>28.46733654097403</v>
+        <v>28.46733654097392</v>
       </c>
       <c r="D12">
-        <v>9.833217677560658</v>
+        <v>9.833217677560764</v>
       </c>
       <c r="E12">
-        <v>16.71588311623732</v>
+        <v>16.71588311623736</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.28495653450741</v>
+        <v>46.28495653450717</v>
       </c>
       <c r="H12">
-        <v>35.94507161180331</v>
+        <v>35.94507161180314</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.23866330238198</v>
+        <v>34.23866330238209</v>
       </c>
       <c r="C13">
-        <v>28.37477371172334</v>
+        <v>28.37477371172341</v>
       </c>
       <c r="D13">
-        <v>9.801513311277203</v>
+        <v>9.801513311277187</v>
       </c>
       <c r="E13">
-        <v>16.66002775514255</v>
+        <v>16.6600277551425</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>46.13468714470282</v>
+        <v>46.13468714470287</v>
       </c>
       <c r="H13">
-        <v>35.84572997238749</v>
+        <v>35.84572997238745</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.98811989036727</v>
+        <v>22.98811989036728</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>33.88241506555728</v>
       </c>
       <c r="C14">
-        <v>28.07252510068603</v>
+        <v>28.07252510068599</v>
       </c>
       <c r="D14">
-        <v>9.697967620942546</v>
+        <v>9.69796762094262</v>
       </c>
       <c r="E14">
-        <v>16.47772586698832</v>
+        <v>16.47772586698836</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.64467967968856</v>
+        <v>45.64467967968857</v>
       </c>
       <c r="H14">
-        <v>35.52243641362086</v>
+        <v>35.5224364136209</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.74115102020122</v>
+        <v>22.74115102020125</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.66370777524481</v>
+        <v>33.66370777524478</v>
       </c>
       <c r="C15">
-        <v>27.88707598759953</v>
+        <v>27.88707598759943</v>
       </c>
       <c r="D15">
-        <v>9.634420572832061</v>
+        <v>9.634420572831939</v>
       </c>
       <c r="E15">
-        <v>16.36593562801243</v>
+        <v>16.36593562801247</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.34454426315992</v>
+        <v>45.34454426315972</v>
       </c>
       <c r="H15">
-        <v>35.32491115041502</v>
+        <v>35.3249111504149</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.5896687558401</v>
+        <v>22.58966875584007</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.40196685078699</v>
+        <v>32.40196685078697</v>
       </c>
       <c r="C16">
-        <v>26.81875439598824</v>
+        <v>26.8187543959884</v>
       </c>
       <c r="D16">
-        <v>9.268133847054379</v>
+        <v>9.268133847054486</v>
       </c>
       <c r="E16">
-        <v>15.72287562215721</v>
+        <v>15.72287562215714</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.62344948212821</v>
+        <v>43.62344948212819</v>
       </c>
       <c r="H16">
-        <v>34.19982107670918</v>
+        <v>34.19982107670916</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.71773927152359</v>
+        <v>21.71773927152357</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.61958043238398</v>
+        <v>31.61958043238402</v>
       </c>
       <c r="C17">
-        <v>26.15759414791089</v>
+        <v>26.15759414791085</v>
       </c>
       <c r="D17">
-        <v>9.041281740657665</v>
+        <v>9.041281740657739</v>
       </c>
       <c r="E17">
-        <v>15.32568481292734</v>
+        <v>15.32568481292738</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.6361422918643</v>
+        <v>42.63614229186447</v>
       </c>
       <c r="H17">
-        <v>33.5149105415755</v>
+        <v>33.51491054157562</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.17872533435746</v>
+        <v>21.17872533435752</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16619658425873</v>
+        <v>31.16619658425879</v>
       </c>
       <c r="C18">
-        <v>25.77489737078473</v>
+        <v>25.77489737078479</v>
       </c>
       <c r="D18">
-        <v>8.909920951635902</v>
+        <v>8.909920951635875</v>
       </c>
       <c r="E18">
         <v>15.0960500946867</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.08417228471699</v>
+        <v>42.08417228471704</v>
       </c>
       <c r="H18">
-        <v>33.1226278126906</v>
+        <v>33.12262781269062</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.86693729937701</v>
+        <v>20.86693729937704</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01208169259282</v>
+        <v>31.01208169259272</v>
       </c>
       <c r="C19">
-        <v>25.6448824567577</v>
+        <v>25.64488245675771</v>
       </c>
       <c r="D19">
-        <v>8.865284903521168</v>
+        <v>8.865284903521124</v>
       </c>
       <c r="E19">
-        <v>15.01808008922631</v>
+        <v>15.01808008922632</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.89734401270855</v>
+        <v>41.89734401270842</v>
       </c>
       <c r="H19">
-        <v>32.99006860960885</v>
+        <v>32.99006860960875</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.76104672080599</v>
+        <v>20.76104672080596</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.70320962793609</v>
+        <v>31.70320962793604</v>
       </c>
       <c r="C20">
-        <v>26.22821951373179</v>
+        <v>26.22821951373181</v>
       </c>
       <c r="D20">
-        <v>9.065519788305474</v>
+        <v>9.065519788305416</v>
       </c>
       <c r="E20">
-        <v>15.36808462085387</v>
+        <v>15.36808462085386</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.73833518987777</v>
+        <v>42.73833518987774</v>
       </c>
       <c r="H20">
-        <v>33.58764275934391</v>
+        <v>33.58764275934394</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.98715487107478</v>
+        <v>33.9871548710748</v>
       </c>
       <c r="C21">
-        <v>28.16136611658697</v>
+        <v>28.16136611658709</v>
       </c>
       <c r="D21">
-        <v>9.728406366751178</v>
+        <v>9.728406366751257</v>
       </c>
       <c r="E21">
-        <v>16.53129711253646</v>
+        <v>16.53129711253645</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.78860180706089</v>
+        <v>45.78860180706101</v>
       </c>
       <c r="H21">
-        <v>35.61728894021843</v>
+        <v>35.61728894021852</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.81373313800432</v>
+        <v>22.81373313800435</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.45683729795705</v>
+        <v>35.45683729795706</v>
       </c>
       <c r="C22">
-        <v>29.40996624810593</v>
+        <v>29.40996624810573</v>
       </c>
       <c r="D22">
         <v>10.15590943947305</v>
       </c>
       <c r="E22">
-        <v>17.28539501397109</v>
+        <v>17.28539501397101</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.8205983300918</v>
+        <v>47.82059833009165</v>
       </c>
       <c r="H22">
-        <v>36.9955168632473</v>
+        <v>36.9955168632472</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.83474313475621</v>
+        <v>23.8347431347561</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.67415760180943</v>
+        <v>34.67415760180938</v>
       </c>
       <c r="C23">
         <v>28.74455313204038</v>
       </c>
       <c r="D23">
-        <v>9.928151216493189</v>
+        <v>9.928151216493216</v>
       </c>
       <c r="E23">
-        <v>16.88323747779081</v>
+        <v>16.88323747779085</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.73556809943261</v>
+        <v>46.73556809943249</v>
       </c>
       <c r="H23">
-        <v>36.24351357110391</v>
+        <v>36.24351357110381</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.29040454591386</v>
+        <v>23.2904045459139</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.6654120901525</v>
+        <v>31.66541209015252</v>
       </c>
       <c r="C24">
-        <v>26.19629791194342</v>
+        <v>26.19629791194329</v>
       </c>
       <c r="D24">
-        <v>9.054564718099543</v>
+        <v>9.054564718099513</v>
       </c>
       <c r="E24">
-        <v>15.34891971325697</v>
+        <v>15.348919713257</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.69213298415205</v>
+        <v>42.69213298415197</v>
       </c>
       <c r="H24">
-        <v>33.55475597650889</v>
+        <v>33.55475597650882</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.28844920529848</v>
+        <v>28.28844920529842</v>
       </c>
       <c r="C25">
-        <v>23.35294609743206</v>
+        <v>23.3529460974324</v>
       </c>
       <c r="D25">
-        <v>8.077811212693867</v>
+        <v>8.077811212693838</v>
       </c>
       <c r="E25">
-        <v>13.64724280164708</v>
+        <v>13.64724280164704</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.66603678412141</v>
+        <v>38.66603678412158</v>
       </c>
       <c r="H25">
-        <v>30.71646887535123</v>
+        <v>30.71646887535138</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.89717052330012</v>
+        <v>18.89717052330023</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.65994037497281</v>
+        <v>25.65994037497283</v>
       </c>
       <c r="C2">
-        <v>21.1507805540551</v>
+        <v>21.15078055405515</v>
       </c>
       <c r="D2">
-        <v>7.320292042536704</v>
+        <v>7.320292042536662</v>
       </c>
       <c r="E2">
-        <v>12.33637437076342</v>
+        <v>12.33637437076339</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.68678791942379</v>
+        <v>35.68678791942381</v>
       </c>
       <c r="H2">
-        <v>28.65728866673727</v>
+        <v>28.65728866673731</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.11109629812203</v>
+        <v>17.11109629812201</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.77864812884236</v>
+        <v>23.77864812884242</v>
       </c>
       <c r="C3">
-        <v>19.58002023364089</v>
+        <v>19.58002023364077</v>
       </c>
       <c r="D3">
-        <v>6.779581076309257</v>
+        <v>6.779581076309238</v>
       </c>
       <c r="E3">
-        <v>11.40496146821748</v>
+        <v>11.40496146821753</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>33.65072224780216</v>
       </c>
       <c r="H3">
-        <v>27.27500951977224</v>
+        <v>27.27500951977223</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.83986413658256</v>
+        <v>15.83986413658254</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>22.57112888153797</v>
       </c>
       <c r="C4">
-        <v>18.57403424749054</v>
+        <v>18.57403424749066</v>
       </c>
       <c r="D4">
-        <v>6.433157327853866</v>
+        <v>6.433157327853841</v>
       </c>
       <c r="E4">
-        <v>10.80996832711373</v>
+        <v>10.80996832711374</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.02686187086833</v>
+        <v>15.02686187086836</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.06547088198434</v>
+        <v>22.06547088198439</v>
       </c>
       <c r="C5">
-        <v>18.15326369655963</v>
+        <v>18.15326369655976</v>
       </c>
       <c r="D5">
-        <v>6.288235316668575</v>
+        <v>6.2882353166685</v>
       </c>
       <c r="E5">
-        <v>10.56144876633055</v>
+        <v>10.56144876633052</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.87614312350575</v>
+        <v>31.87614312350567</v>
       </c>
       <c r="H5">
-        <v>26.09010686049998</v>
+        <v>26.0901068604999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.68707018417556</v>
+        <v>14.68707018417558</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,19 +570,19 @@
         <v>18.0827310234703</v>
       </c>
       <c r="D6">
-        <v>6.263941139772755</v>
+        <v>6.263941139772844</v>
       </c>
       <c r="E6">
-        <v>10.51980986849619</v>
+        <v>10.51980986849618</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.79044304791881</v>
+        <v>31.79044304791886</v>
       </c>
       <c r="H6">
-        <v>26.03340761467167</v>
+        <v>26.03340761467172</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56436491252194</v>
+        <v>22.56436491252201</v>
       </c>
       <c r="C7">
-        <v>18.56840388445304</v>
+        <v>18.56840388445305</v>
       </c>
       <c r="D7">
-        <v>6.431218204271699</v>
+        <v>6.431218204271643</v>
       </c>
       <c r="E7">
-        <v>10.80664152856454</v>
+        <v>10.80664152856453</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.38454776611165</v>
+        <v>32.38454776611175</v>
       </c>
       <c r="H7">
-        <v>26.42749771147456</v>
+        <v>26.42749771147463</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.02231408817346</v>
+        <v>15.02231408817344</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.02188658689509</v>
+        <v>25.0218865868952</v>
       </c>
       <c r="C8">
-        <v>20.61756111651864</v>
+        <v>20.61756111651863</v>
       </c>
       <c r="D8">
-        <v>7.136769981696724</v>
+        <v>7.136769981696776</v>
       </c>
       <c r="E8">
-        <v>12.01986138751728</v>
+        <v>12.0198613875173</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.98663664263803</v>
+        <v>34.98663664263807</v>
       </c>
       <c r="H8">
         <v>28.17944472026033</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.44635425929282</v>
+        <v>29.44635425929278</v>
       </c>
       <c r="C9">
-        <v>24.32601292548647</v>
+        <v>24.32601292548638</v>
       </c>
       <c r="D9">
-        <v>8.412275465322903</v>
+        <v>8.412275465322876</v>
       </c>
       <c r="E9">
-        <v>14.22841464663551</v>
+        <v>14.22841464663558</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.02301197181017</v>
+        <v>40.02301197181019</v>
       </c>
       <c r="H9">
-        <v>31.66666127392052</v>
+        <v>31.66666127392058</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.49080669677429</v>
+        <v>32.49080669677416</v>
       </c>
       <c r="C10">
-        <v>26.89389053072362</v>
+        <v>26.8938905307235</v>
       </c>
       <c r="D10">
-        <v>9.293906289717256</v>
+        <v>9.293906289717182</v>
       </c>
       <c r="E10">
-        <v>15.76805118406371</v>
+        <v>15.7680511840637</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.74404394702664</v>
+        <v>43.74404394702639</v>
       </c>
       <c r="H10">
-        <v>34.27821869990538</v>
+        <v>34.27821869990527</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.77902331819669</v>
+        <v>21.77902331819664</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.84062161509792</v>
+        <v>33.84062161509796</v>
       </c>
       <c r="C11">
-        <v>28.03708080893086</v>
+        <v>28.03708080893091</v>
       </c>
       <c r="D11">
-        <v>9.685822951518627</v>
+        <v>9.685822951518704</v>
       </c>
       <c r="E11">
-        <v>16.45635601915419</v>
+        <v>16.45635601915425</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.58728521627082</v>
+        <v>45.58728521627102</v>
       </c>
       <c r="H11">
-        <v>35.48463453665349</v>
+        <v>35.48463453665367</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.71219582206513</v>
+        <v>22.71219582206519</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.34771211788966</v>
+        <v>34.34771211788976</v>
       </c>
       <c r="C12">
-        <v>28.46733654097392</v>
+        <v>28.46733654097403</v>
       </c>
       <c r="D12">
-        <v>9.833217677560764</v>
+        <v>9.833217677560658</v>
       </c>
       <c r="E12">
-        <v>16.71588311623736</v>
+        <v>16.71588311623732</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.28495653450717</v>
+        <v>46.28495653450741</v>
       </c>
       <c r="H12">
-        <v>35.94507161180314</v>
+        <v>35.94507161180331</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.23866330238209</v>
+        <v>34.23866330238198</v>
       </c>
       <c r="C13">
-        <v>28.37477371172341</v>
+        <v>28.37477371172334</v>
       </c>
       <c r="D13">
-        <v>9.801513311277187</v>
+        <v>9.801513311277203</v>
       </c>
       <c r="E13">
-        <v>16.6600277551425</v>
+        <v>16.66002775514255</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>46.13468714470287</v>
+        <v>46.13468714470282</v>
       </c>
       <c r="H13">
-        <v>35.84572997238745</v>
+        <v>35.84572997238749</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.98811989036728</v>
+        <v>22.98811989036727</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>33.88241506555728</v>
       </c>
       <c r="C14">
-        <v>28.07252510068599</v>
+        <v>28.07252510068603</v>
       </c>
       <c r="D14">
-        <v>9.69796762094262</v>
+        <v>9.697967620942546</v>
       </c>
       <c r="E14">
-        <v>16.47772586698836</v>
+        <v>16.47772586698832</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.64467967968857</v>
+        <v>45.64467967968856</v>
       </c>
       <c r="H14">
-        <v>35.5224364136209</v>
+        <v>35.52243641362086</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.74115102020125</v>
+        <v>22.74115102020122</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.66370777524478</v>
+        <v>33.66370777524481</v>
       </c>
       <c r="C15">
-        <v>27.88707598759943</v>
+        <v>27.88707598759953</v>
       </c>
       <c r="D15">
-        <v>9.634420572831939</v>
+        <v>9.634420572832061</v>
       </c>
       <c r="E15">
-        <v>16.36593562801247</v>
+        <v>16.36593562801243</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.34454426315972</v>
+        <v>45.34454426315992</v>
       </c>
       <c r="H15">
-        <v>35.3249111504149</v>
+        <v>35.32491115041502</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.58966875584007</v>
+        <v>22.5896687558401</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.40196685078697</v>
+        <v>32.40196685078699</v>
       </c>
       <c r="C16">
-        <v>26.8187543959884</v>
+        <v>26.81875439598824</v>
       </c>
       <c r="D16">
-        <v>9.268133847054486</v>
+        <v>9.268133847054379</v>
       </c>
       <c r="E16">
-        <v>15.72287562215714</v>
+        <v>15.72287562215721</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.62344948212819</v>
+        <v>43.62344948212821</v>
       </c>
       <c r="H16">
-        <v>34.19982107670916</v>
+        <v>34.19982107670918</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.71773927152357</v>
+        <v>21.71773927152359</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.61958043238402</v>
+        <v>31.61958043238398</v>
       </c>
       <c r="C17">
-        <v>26.15759414791085</v>
+        <v>26.15759414791089</v>
       </c>
       <c r="D17">
-        <v>9.041281740657739</v>
+        <v>9.041281740657665</v>
       </c>
       <c r="E17">
-        <v>15.32568481292738</v>
+        <v>15.32568481292734</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.63614229186447</v>
+        <v>42.6361422918643</v>
       </c>
       <c r="H17">
-        <v>33.51491054157562</v>
+        <v>33.5149105415755</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.17872533435752</v>
+        <v>21.17872533435746</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16619658425879</v>
+        <v>31.16619658425873</v>
       </c>
       <c r="C18">
-        <v>25.77489737078479</v>
+        <v>25.77489737078473</v>
       </c>
       <c r="D18">
-        <v>8.909920951635875</v>
+        <v>8.909920951635902</v>
       </c>
       <c r="E18">
         <v>15.0960500946867</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.08417228471704</v>
+        <v>42.08417228471699</v>
       </c>
       <c r="H18">
-        <v>33.12262781269062</v>
+        <v>33.1226278126906</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.86693729937704</v>
+        <v>20.86693729937701</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01208169259272</v>
+        <v>31.01208169259282</v>
       </c>
       <c r="C19">
-        <v>25.64488245675771</v>
+        <v>25.6448824567577</v>
       </c>
       <c r="D19">
-        <v>8.865284903521124</v>
+        <v>8.865284903521168</v>
       </c>
       <c r="E19">
-        <v>15.01808008922632</v>
+        <v>15.01808008922631</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.89734401270842</v>
+        <v>41.89734401270855</v>
       </c>
       <c r="H19">
-        <v>32.99006860960875</v>
+        <v>32.99006860960885</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.76104672080596</v>
+        <v>20.76104672080599</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.70320962793604</v>
+        <v>31.70320962793609</v>
       </c>
       <c r="C20">
-        <v>26.22821951373181</v>
+        <v>26.22821951373179</v>
       </c>
       <c r="D20">
-        <v>9.065519788305416</v>
+        <v>9.065519788305474</v>
       </c>
       <c r="E20">
-        <v>15.36808462085386</v>
+        <v>15.36808462085387</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.73833518987774</v>
+        <v>42.73833518987777</v>
       </c>
       <c r="H20">
-        <v>33.58764275934394</v>
+        <v>33.58764275934391</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.9871548710748</v>
+        <v>33.98715487107478</v>
       </c>
       <c r="C21">
-        <v>28.16136611658709</v>
+        <v>28.16136611658697</v>
       </c>
       <c r="D21">
-        <v>9.728406366751257</v>
+        <v>9.728406366751178</v>
       </c>
       <c r="E21">
-        <v>16.53129711253645</v>
+        <v>16.53129711253646</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.78860180706101</v>
+        <v>45.78860180706089</v>
       </c>
       <c r="H21">
-        <v>35.61728894021852</v>
+        <v>35.61728894021843</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.81373313800435</v>
+        <v>22.81373313800432</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.45683729795706</v>
+        <v>35.45683729795705</v>
       </c>
       <c r="C22">
-        <v>29.40996624810573</v>
+        <v>29.40996624810593</v>
       </c>
       <c r="D22">
         <v>10.15590943947305</v>
       </c>
       <c r="E22">
-        <v>17.28539501397101</v>
+        <v>17.28539501397109</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.82059833009165</v>
+        <v>47.8205983300918</v>
       </c>
       <c r="H22">
-        <v>36.9955168632472</v>
+        <v>36.9955168632473</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.8347431347561</v>
+        <v>23.83474313475621</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.67415760180938</v>
+        <v>34.67415760180943</v>
       </c>
       <c r="C23">
         <v>28.74455313204038</v>
       </c>
       <c r="D23">
-        <v>9.928151216493216</v>
+        <v>9.928151216493189</v>
       </c>
       <c r="E23">
-        <v>16.88323747779085</v>
+        <v>16.88323747779081</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.73556809943249</v>
+        <v>46.73556809943261</v>
       </c>
       <c r="H23">
-        <v>36.24351357110381</v>
+        <v>36.24351357110391</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.2904045459139</v>
+        <v>23.29040454591386</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.66541209015252</v>
+        <v>31.6654120901525</v>
       </c>
       <c r="C24">
-        <v>26.19629791194329</v>
+        <v>26.19629791194342</v>
       </c>
       <c r="D24">
-        <v>9.054564718099513</v>
+        <v>9.054564718099543</v>
       </c>
       <c r="E24">
-        <v>15.348919713257</v>
+        <v>15.34891971325697</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.69213298415197</v>
+        <v>42.69213298415205</v>
       </c>
       <c r="H24">
-        <v>33.55475597650882</v>
+        <v>33.55475597650889</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.28844920529842</v>
+        <v>28.28844920529848</v>
       </c>
       <c r="C25">
-        <v>23.3529460974324</v>
+        <v>23.35294609743206</v>
       </c>
       <c r="D25">
-        <v>8.077811212693838</v>
+        <v>8.077811212693867</v>
       </c>
       <c r="E25">
-        <v>13.64724280164704</v>
+        <v>13.64724280164708</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.66603678412158</v>
+        <v>38.66603678412141</v>
       </c>
       <c r="H25">
-        <v>30.71646887535138</v>
+        <v>30.71646887535123</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.89717052330023</v>
+        <v>18.89717052330012</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.65994037497283</v>
+        <v>25.65805086186208</v>
       </c>
       <c r="C2">
-        <v>21.15078055405515</v>
+        <v>21.14006306364351</v>
       </c>
       <c r="D2">
-        <v>7.320292042536662</v>
+        <v>7.320040894214862</v>
       </c>
       <c r="E2">
-        <v>12.33637437076339</v>
+        <v>12.33787028416388</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.68678791942381</v>
+        <v>35.09241395352574</v>
       </c>
       <c r="H2">
-        <v>28.65728866673731</v>
+        <v>35.72576754606423</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>28.61723839795733</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.11109629812201</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>17.10863951724667</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.77864812884242</v>
+        <v>23.77727654283962</v>
       </c>
       <c r="C3">
-        <v>19.58002023364077</v>
+        <v>19.57036658353828</v>
       </c>
       <c r="D3">
-        <v>6.779581076309238</v>
+        <v>6.779406957520133</v>
       </c>
       <c r="E3">
-        <v>11.40496146821753</v>
+        <v>11.40642237751777</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.65072224780216</v>
+        <v>32.82749298374664</v>
       </c>
       <c r="H3">
-        <v>27.27500951977223</v>
+        <v>33.68792674434412</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>27.23814584658809</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.83986413658254</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15.83774560496363</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.57112888153797</v>
+        <v>22.57005311091052</v>
       </c>
       <c r="C4">
-        <v>18.57403424749066</v>
+        <v>18.56503136037487</v>
       </c>
       <c r="D4">
-        <v>6.433157327853841</v>
+        <v>6.433025238317184</v>
       </c>
       <c r="E4">
-        <v>10.80996832711374</v>
+        <v>10.81139614541746</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.39148923062444</v>
+        <v>31.41160974734553</v>
       </c>
       <c r="H4">
-        <v>26.43211622531847</v>
+        <v>32.42764327137617</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>26.39728574454227</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.02686187086836</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15.02494178952543</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.06547088198439</v>
+        <v>22.06451094849039</v>
       </c>
       <c r="C5">
-        <v>18.15326369655976</v>
+        <v>18.1445262887933</v>
       </c>
       <c r="D5">
-        <v>6.2882353166685</v>
+        <v>6.288119243842809</v>
       </c>
       <c r="E5">
-        <v>10.56144876633052</v>
+        <v>10.56286051783855</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.87614312350567</v>
+        <v>30.82827821262738</v>
       </c>
       <c r="H5">
-        <v>26.0901068604999</v>
+        <v>31.91188043177362</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>26.05612450407153</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.68707018417558</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>14.68522923789557</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.98067515319131</v>
+        <v>21.97973419237</v>
       </c>
       <c r="C6">
-        <v>18.0827310234703</v>
+        <v>18.07403773912944</v>
       </c>
       <c r="D6">
-        <v>6.263941139772844</v>
+        <v>6.26382766501708</v>
       </c>
       <c r="E6">
-        <v>10.51980986849618</v>
+        <v>10.52121880484299</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.79044304791886</v>
+        <v>30.73103631207513</v>
       </c>
       <c r="H6">
-        <v>26.03340761467172</v>
+        <v>31.82611188467948</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>25.99956727251256</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.6301266085744</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>14.62829871318808</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56436491252201</v>
+        <v>22.56329072214927</v>
       </c>
       <c r="C7">
-        <v>18.56840388445305</v>
+        <v>18.5594045754408</v>
       </c>
       <c r="D7">
-        <v>6.431218204271643</v>
+        <v>6.431086334981882</v>
       </c>
       <c r="E7">
-        <v>10.80664152856453</v>
+        <v>10.80806914024134</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.38454776611175</v>
+        <v>31.40376831506629</v>
       </c>
       <c r="H7">
-        <v>26.42749771147463</v>
+        <v>32.42069613887287</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>26.39267858940064</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.02231408817344</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15.02039508039221</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.0218865868952</v>
+        <v>25.02018083845826</v>
       </c>
       <c r="C8">
-        <v>20.61756111651863</v>
+        <v>20.60721154002274</v>
       </c>
       <c r="D8">
-        <v>7.136769981696776</v>
+        <v>7.136546627291652</v>
       </c>
       <c r="E8">
-        <v>12.0198613875173</v>
+        <v>12.02134786060169</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.98663664263807</v>
+        <v>34.31664045310575</v>
       </c>
       <c r="H8">
-        <v>28.17944472026033</v>
+        <v>35.02499684559137</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.14047761460501</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.6793063321061</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>16.67696848294747</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.44635425929278</v>
+        <v>29.443184239412</v>
       </c>
       <c r="C9">
-        <v>24.32601292548638</v>
+        <v>24.3129450699095</v>
       </c>
       <c r="D9">
-        <v>8.412275465322876</v>
+        <v>8.411818821393124</v>
       </c>
       <c r="E9">
-        <v>14.22841464663558</v>
+        <v>14.22990523199821</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.02301197181019</v>
+        <v>39.8392974927593</v>
       </c>
       <c r="H9">
-        <v>31.66666127392058</v>
+        <v>40.06596164307186</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>31.62012936472758</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.68786199635892</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>19.68459638912495</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.49080669677416</v>
+        <v>32.48633227345023</v>
       </c>
       <c r="C10">
-        <v>26.8938905307235</v>
+        <v>26.87868986661755</v>
       </c>
       <c r="D10">
-        <v>9.293906289717182</v>
+        <v>9.293223222643762</v>
       </c>
       <c r="E10">
-        <v>15.7680511840637</v>
+        <v>15.76944060470126</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.74404394702639</v>
+        <v>43.81196181134807</v>
       </c>
       <c r="H10">
-        <v>34.27821869990527</v>
+        <v>43.81196181134806</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.22638258289274</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.77902331819664</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>21.77495049246311</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.84062161509796</v>
+        <v>33.83547502874975</v>
       </c>
       <c r="C11">
-        <v>28.03708080893091</v>
+        <v>28.02085095195239</v>
       </c>
       <c r="D11">
-        <v>9.685822951518704</v>
+        <v>9.685017762608105</v>
       </c>
       <c r="E11">
-        <v>16.45635601915425</v>
+        <v>16.45766463507846</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.58728521627102</v>
+        <v>45.63634265284106</v>
       </c>
       <c r="H11">
-        <v>35.48463453665367</v>
+        <v>45.6126569736467</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.43040591781617</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.71219582206519</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>22.70770883041365</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.34771211788976</v>
+        <v>34.34229626455165</v>
       </c>
       <c r="C12">
-        <v>28.46733654097403</v>
+        <v>28.45070504755866</v>
       </c>
       <c r="D12">
-        <v>9.833217677560658</v>
+        <v>9.832362646124878</v>
       </c>
       <c r="E12">
-        <v>16.71588311623732</v>
+        <v>16.71715465087191</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.28495653450741</v>
+        <v>46.33467916605277</v>
       </c>
       <c r="H12">
-        <v>35.94507161180331</v>
+        <v>46.29501177386502</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.88993574425433</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.06377340251185</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>23.05912048834081</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.23866330238198</v>
+        <v>34.2333061615595</v>
       </c>
       <c r="C13">
-        <v>28.37477371172334</v>
+        <v>28.35822931331224</v>
       </c>
       <c r="D13">
-        <v>9.801513311277203</v>
+        <v>9.800669190820017</v>
       </c>
       <c r="E13">
-        <v>16.66002775514255</v>
+        <v>16.66130759340371</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>46.13468714470282</v>
+        <v>46.18426695285095</v>
       </c>
       <c r="H13">
-        <v>35.84572997238749</v>
+        <v>46.14800675032244</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.79078963485179</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.98811989036727</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>22.98350316022023</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.88241506555728</v>
+        <v>33.87724664503181</v>
       </c>
       <c r="C14">
-        <v>28.07252510068603</v>
+        <v>28.05626246278335</v>
       </c>
       <c r="D14">
-        <v>9.697967620942546</v>
+        <v>9.697158409398376</v>
       </c>
       <c r="E14">
-        <v>16.47772586698832</v>
+        <v>16.47903157245445</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.64467967968856</v>
+        <v>45.69379203550798</v>
       </c>
       <c r="H14">
-        <v>35.52243641362086</v>
+        <v>45.66877577986451</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.46813320908289</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.74115102020122</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>22.73665057622345</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.66370777524481</v>
+        <v>33.6586529136551</v>
       </c>
       <c r="C15">
-        <v>27.88707598759953</v>
+        <v>27.87098426654622</v>
       </c>
       <c r="D15">
-        <v>9.634420572832061</v>
+        <v>9.633632245689654</v>
       </c>
       <c r="E15">
-        <v>16.36593562801243</v>
+        <v>16.3672562810614</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.34454426315992</v>
+        <v>45.39336905704999</v>
       </c>
       <c r="H15">
-        <v>35.32491115041502</v>
+        <v>45.37534285750711</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.27099789640536</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.5896687558401</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>22.58523827494969</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.40196685078699</v>
+        <v>32.39753450132762</v>
       </c>
       <c r="C16">
-        <v>26.81875439598824</v>
+        <v>26.80361953540859</v>
       </c>
       <c r="D16">
-        <v>9.268133847054379</v>
+        <v>9.267458309545717</v>
       </c>
       <c r="E16">
-        <v>15.72287562215721</v>
+        <v>15.72426950810189</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.62344948212821</v>
+        <v>43.69426260466119</v>
       </c>
       <c r="H16">
-        <v>34.19982107670918</v>
+        <v>43.69426260466194</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.14814139701009</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.71773927152359</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>21.71369238438795</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.61958043238398</v>
+        <v>31.61550767669195</v>
       </c>
       <c r="C17">
-        <v>26.15759414791089</v>
+        <v>26.14302905234894</v>
       </c>
       <c r="D17">
-        <v>9.041281740657665</v>
+        <v>9.040669973333305</v>
       </c>
       <c r="E17">
-        <v>15.32568481292734</v>
+        <v>15.32711380886882</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.6361422918643</v>
+        <v>42.66218998643846</v>
       </c>
       <c r="H17">
-        <v>33.5149105415755</v>
+        <v>42.68153344519165</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.4646037256965</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.17872533435746</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>21.17490029888588</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16619658425873</v>
+        <v>31.16232349517225</v>
       </c>
       <c r="C18">
-        <v>25.77489737078473</v>
+        <v>25.76065469278369</v>
       </c>
       <c r="D18">
-        <v>8.909920951635902</v>
+        <v>8.909344126921603</v>
       </c>
       <c r="E18">
-        <v>15.0960500946867</v>
+        <v>15.09749612301836</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.08417228471699</v>
+        <v>42.06785304160632</v>
       </c>
       <c r="H18">
-        <v>33.1226278126906</v>
+        <v>42.12904755697964</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.07311286978191</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.86693729937701</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>20.86323562205469</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01208169259282</v>
+        <v>31.00827506497592</v>
       </c>
       <c r="C19">
-        <v>25.6448824567577</v>
+        <v>25.63074812278097</v>
       </c>
       <c r="D19">
-        <v>8.865284903521168</v>
+        <v>8.864719633325167</v>
       </c>
       <c r="E19">
-        <v>15.01808008922631</v>
+        <v>15.01953137882927</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.89734401270855</v>
+        <v>41.86646129462635</v>
       </c>
       <c r="H19">
-        <v>32.99006860960885</v>
+        <v>41.94204459597336</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>32.9408222728586</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.76104672080599</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>20.75738614112399</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.70320962793609</v>
+        <v>31.69909935560923</v>
       </c>
       <c r="C20">
-        <v>26.22821951373179</v>
+        <v>26.21359433548505</v>
       </c>
       <c r="D20">
-        <v>9.065519788305474</v>
+        <v>9.064901417559264</v>
       </c>
       <c r="E20">
-        <v>15.36808462085387</v>
+        <v>15.36951021570671</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.73833518987777</v>
+        <v>42.7721210718711</v>
       </c>
       <c r="H20">
-        <v>33.58764275934391</v>
+        <v>42.78382179711512</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.53718959438997</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.23628126963325</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>21.23243307164259</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.98715487107478</v>
+        <v>33.98193145111451</v>
       </c>
       <c r="C21">
-        <v>28.16136611658697</v>
+        <v>28.14502107439574</v>
       </c>
       <c r="D21">
-        <v>9.728406366751178</v>
+        <v>9.727587007378775</v>
       </c>
       <c r="E21">
-        <v>16.53129711253646</v>
+        <v>16.53259541047908</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.78860180706089</v>
+        <v>45.83785172726472</v>
       </c>
       <c r="H21">
-        <v>35.61728894021843</v>
+        <v>45.80951153494852</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.5627986687568</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.81373313800432</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>22.80919880699037</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.45683729795705</v>
+        <v>35.45079806171053</v>
       </c>
       <c r="C22">
-        <v>29.40996624810593</v>
+        <v>29.392425358187</v>
       </c>
       <c r="D22">
-        <v>10.15590943947305</v>
+        <v>10.15493713832026</v>
       </c>
       <c r="E22">
-        <v>17.28539501397109</v>
+        <v>17.28657122731384</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.8205983300918</v>
+        <v>47.87176462539461</v>
       </c>
       <c r="H22">
-        <v>36.9955168632473</v>
+        <v>47.79833187190462</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>36.9372603051908</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.83474313475621</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>23.82970571152507</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.67415760180943</v>
+        <v>34.66856328644554</v>
       </c>
       <c r="C23">
-        <v>28.74455313204038</v>
+        <v>28.72765848809401</v>
       </c>
       <c r="D23">
-        <v>9.928151216493189</v>
+        <v>9.927262875815259</v>
       </c>
       <c r="E23">
-        <v>16.88323747779081</v>
+        <v>16.88448304373592</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.73556809943261</v>
+        <v>46.78571743917359</v>
       </c>
       <c r="H23">
-        <v>36.24351357110391</v>
+        <v>46.7359456048675</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>36.18779090358868</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.29040454591386</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>23.28564162149635</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.6654120901525</v>
+        <v>31.66131880087153</v>
       </c>
       <c r="C24">
-        <v>26.19629791194342</v>
+        <v>26.18169991286972</v>
       </c>
       <c r="D24">
-        <v>9.054564718099543</v>
+        <v>9.053949338056814</v>
       </c>
       <c r="E24">
-        <v>15.34891971325697</v>
+        <v>15.35034685545812</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.69213298415205</v>
+        <v>42.72242439559765</v>
       </c>
       <c r="H24">
-        <v>33.55475597650889</v>
+        <v>42.73757643872892</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>33.50436896759051</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.21026621348323</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>21.20642850014481</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.28844920529848</v>
+        <v>28.28570750343263</v>
       </c>
       <c r="C25">
-        <v>23.35294609743206</v>
+        <v>23.34062935983394</v>
       </c>
       <c r="D25">
-        <v>8.077811212693867</v>
+        <v>8.077425398726527</v>
       </c>
       <c r="E25">
-        <v>13.64724280164708</v>
+        <v>13.64874733624364</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.66603678412141</v>
+        <v>38.36324335481971</v>
       </c>
       <c r="H25">
-        <v>30.71646887535123</v>
+        <v>38.70772646294005</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30.67192989867805</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.89717052330012</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>18.8941726293247</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.65805086186208</v>
+        <v>32.25874106209384</v>
       </c>
       <c r="C2">
-        <v>21.14006306364351</v>
+        <v>25.27353910933331</v>
       </c>
       <c r="D2">
-        <v>7.320040894214862</v>
+        <v>12.16123552416849</v>
       </c>
       <c r="E2">
-        <v>12.33787028416388</v>
+        <v>13.15784178562125</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.09241395352574</v>
+        <v>2.101942798967425</v>
       </c>
       <c r="H2">
-        <v>35.72576754606423</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>28.61723839795733</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.893448513108641</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>28.89614563919519</v>
       </c>
       <c r="L2">
-        <v>17.10863951724667</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>21.10866309643482</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.77727654283962</v>
+        <v>30.21394703355946</v>
       </c>
       <c r="C3">
-        <v>19.57036658353828</v>
+        <v>23.59683118743353</v>
       </c>
       <c r="D3">
-        <v>6.779406957520133</v>
+        <v>11.63652622349862</v>
       </c>
       <c r="E3">
-        <v>11.40642237751777</v>
+        <v>12.60216847314511</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.82749298374664</v>
+        <v>2.123074466480734</v>
       </c>
       <c r="H3">
-        <v>33.68792674434412</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>27.23814584658809</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.825305781483525</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>27.13257926997774</v>
       </c>
       <c r="L3">
-        <v>15.83774560496363</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>20.74954136629878</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.57005311091052</v>
+        <v>28.94400225935627</v>
       </c>
       <c r="C4">
-        <v>18.56503136037487</v>
+        <v>22.55380092964973</v>
       </c>
       <c r="D4">
-        <v>6.433025238317184</v>
+        <v>11.32158215006142</v>
       </c>
       <c r="E4">
-        <v>10.81139614541746</v>
+        <v>12.26958118919469</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.41160974734553</v>
+        <v>2.136087582613676</v>
       </c>
       <c r="H4">
-        <v>32.42764327137617</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>26.39728574454227</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.789072333696192</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>26.04205129739795</v>
       </c>
       <c r="L4">
-        <v>15.02494178952543</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>20.53614664233863</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.06451094849039</v>
+        <v>28.42266785471615</v>
       </c>
       <c r="C5">
-        <v>18.1445262887933</v>
+        <v>22.12511655165816</v>
       </c>
       <c r="D5">
-        <v>6.288119243842809</v>
+        <v>11.19496554632951</v>
       </c>
       <c r="E5">
-        <v>10.56286051783855</v>
+        <v>12.13609889040753</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.82827821262738</v>
+        <v>2.141414059215477</v>
       </c>
       <c r="H5">
-        <v>31.91188043177362</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>26.05612450407153</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.775616803328325</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>25.59556530660789</v>
       </c>
       <c r="L5">
-        <v>14.68522923789557</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>20.45080311135195</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.97973419237</v>
+        <v>28.33586848836218</v>
       </c>
       <c r="C6">
-        <v>18.07403773912944</v>
+        <v>22.05371047149156</v>
       </c>
       <c r="D6">
-        <v>6.26382766501708</v>
+        <v>11.17404339493952</v>
       </c>
       <c r="E6">
-        <v>10.52121880484299</v>
+        <v>12.11405573136705</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.73103631207513</v>
+        <v>2.142300306276288</v>
       </c>
       <c r="H6">
-        <v>31.82611188467948</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>25.99956727251256</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.773458931158906</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>25.52129985235752</v>
       </c>
       <c r="L6">
-        <v>14.62829871318808</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>20.43672502228872</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56329072214927</v>
+        <v>28.93698692720626</v>
       </c>
       <c r="C7">
-        <v>18.5594045754408</v>
+        <v>22.54803446654032</v>
       </c>
       <c r="D7">
-        <v>6.431086334981882</v>
+        <v>11.31986765377631</v>
       </c>
       <c r="E7">
-        <v>10.80806914024134</v>
+        <v>12.26777281219349</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.40376831506629</v>
+        <v>2.136159305160615</v>
       </c>
       <c r="H7">
-        <v>32.42069613887287</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>26.39267858940064</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.788885687667357</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>26.03603834151239</v>
       </c>
       <c r="L7">
-        <v>15.02039508039221</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>20.53498933069665</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.02018083845826</v>
+        <v>31.55650360906155</v>
       </c>
       <c r="C8">
-        <v>20.60721154002274</v>
+        <v>24.69801218288445</v>
       </c>
       <c r="D8">
-        <v>7.136546627291652</v>
+        <v>11.97874293250571</v>
       </c>
       <c r="E8">
-        <v>12.02134786060169</v>
+        <v>12.96437551855935</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.31664045310575</v>
+        <v>2.10923014653883</v>
       </c>
       <c r="H8">
-        <v>35.02499684559137</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>28.14047761460501</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.868725200991088</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>28.28950826454498</v>
       </c>
       <c r="L8">
-        <v>16.67696848294747</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>20.98325090333321</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.443184239412</v>
+        <v>36.64780482682426</v>
       </c>
       <c r="C9">
-        <v>24.3129450699095</v>
+        <v>28.8290218054861</v>
       </c>
       <c r="D9">
-        <v>8.411818821393124</v>
+        <v>13.33578952717354</v>
       </c>
       <c r="E9">
-        <v>14.22990523199821</v>
+        <v>14.40741623708123</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.8392974927593</v>
+        <v>2.055958006117316</v>
       </c>
       <c r="H9">
-        <v>40.06596164307186</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>31.62012936472758</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.075089429634713</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>32.70579655420697</v>
       </c>
       <c r="L9">
-        <v>19.68459638912495</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>21.92827161481549</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.48633227345023</v>
+        <v>40.62597273835785</v>
       </c>
       <c r="C10">
-        <v>26.87868986661755</v>
+        <v>31.93261431688209</v>
       </c>
       <c r="D10">
-        <v>9.293223222643762</v>
+        <v>14.39040697049389</v>
       </c>
       <c r="E10">
-        <v>15.76944060470126</v>
+        <v>15.53474986922013</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.81196181134807</v>
+        <v>2.015163731912266</v>
       </c>
       <c r="H10">
-        <v>43.81196181134806</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>34.22638258289274</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.266316354998161</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>36.32485889825992</v>
       </c>
       <c r="L10">
-        <v>21.77495049246311</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>22.68037796479592</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.83547502874975</v>
+        <v>42.44487713264506</v>
       </c>
       <c r="C11">
-        <v>28.02085095195239</v>
+        <v>33.38232566553541</v>
       </c>
       <c r="D11">
-        <v>9.685017762608105</v>
+        <v>14.88966654032582</v>
       </c>
       <c r="E11">
-        <v>16.45766463507846</v>
+        <v>16.06993035068581</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.63634265284106</v>
+        <v>1.995811541117316</v>
       </c>
       <c r="H11">
-        <v>45.6126569736467</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>35.43040591781617</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.364781713125647</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>37.97785694505251</v>
       </c>
       <c r="L11">
-        <v>22.70770883041365</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>23.04079504993061</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.34229626455165</v>
+        <v>43.13792538310025</v>
       </c>
       <c r="C12">
-        <v>28.45070504755866</v>
+        <v>33.93571894426241</v>
       </c>
       <c r="D12">
-        <v>9.832362646124878</v>
+        <v>15.08243410377679</v>
       </c>
       <c r="E12">
-        <v>16.71715465087191</v>
+        <v>16.2768057715714</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.33467916605277</v>
+        <v>1.988317906775828</v>
       </c>
       <c r="H12">
-        <v>46.29501177386502</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>35.88993574425433</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.404054240929144</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>38.60751180210635</v>
       </c>
       <c r="L12">
-        <v>23.05912048834081</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>23.1805889236743</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.2333061615595</v>
+        <v>42.9884168906371</v>
       </c>
       <c r="C13">
-        <v>28.35822931331224</v>
+        <v>33.81628917745945</v>
       </c>
       <c r="D13">
-        <v>9.800669190820017</v>
+        <v>15.04073491051237</v>
       </c>
       <c r="E13">
-        <v>16.66130759340371</v>
+        <v>16.23204377319794</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>46.18426695285095</v>
+        <v>1.989940149465935</v>
       </c>
       <c r="H13">
-        <v>46.14800675032244</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>35.79078963485179</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.395501317464849</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>38.47168567339465</v>
       </c>
       <c r="L13">
-        <v>22.98350316022023</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>23.1503210582781</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.87724664503181</v>
+        <v>42.50178847169958</v>
       </c>
       <c r="C14">
-        <v>28.05626246278335</v>
+        <v>33.42774739883099</v>
       </c>
       <c r="D14">
-        <v>9.697158409398376</v>
+        <v>14.9054448560746</v>
       </c>
       <c r="E14">
-        <v>16.47903157245445</v>
+        <v>16.08685851195356</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.69379203550798</v>
+        <v>1.995198703219633</v>
       </c>
       <c r="H14">
-        <v>45.66877577986451</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>35.46813320908289</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.367970567550278</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>38.02956573664324</v>
       </c>
       <c r="L14">
-        <v>22.73665057622345</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>23.05222484401749</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.6586529136551</v>
+        <v>42.2043754225877</v>
       </c>
       <c r="C15">
-        <v>27.87098426654622</v>
+        <v>33.19042001148096</v>
       </c>
       <c r="D15">
-        <v>9.633632245689654</v>
+        <v>14.82309164090989</v>
       </c>
       <c r="E15">
-        <v>16.3672562810614</v>
+        <v>15.99851351254464</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.39336905704999</v>
+        <v>1.998396379441727</v>
       </c>
       <c r="H15">
-        <v>45.37534285750711</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>35.27099789640536</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.351377638027287</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>37.75933391180245</v>
       </c>
       <c r="L15">
-        <v>22.58523827494969</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>22.99259362619917</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.39753450132762</v>
+        <v>40.50751779643102</v>
       </c>
       <c r="C16">
-        <v>26.80361953540859</v>
+        <v>31.8383339051964</v>
       </c>
       <c r="D16">
-        <v>9.267458309545717</v>
+        <v>14.35824134314581</v>
       </c>
       <c r="E16">
-        <v>15.72426950810189</v>
+        <v>15.5003013888064</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.69426260466119</v>
+        <v>2.016408443856586</v>
       </c>
       <c r="H16">
-        <v>43.69426260466194</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>34.14814139701009</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.260138662782435</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>36.2171797232112</v>
       </c>
       <c r="L16">
-        <v>21.71369238438795</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>22.6572450677031</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.61550767669195</v>
+        <v>39.47070906488281</v>
       </c>
       <c r="C17">
-        <v>26.14302905234894</v>
+        <v>31.013787736956</v>
       </c>
       <c r="D17">
-        <v>9.040669973333305</v>
+        <v>14.07860890068715</v>
       </c>
       <c r="E17">
-        <v>15.32711380886882</v>
+        <v>15.20098877743116</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.66218998643846</v>
+        <v>2.027223135891905</v>
       </c>
       <c r="H17">
-        <v>42.68153344519165</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>33.4646037256965</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.207313270024444</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>35.27450603327221</v>
       </c>
       <c r="L17">
-        <v>21.17490029888588</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>22.45662101070289</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16232349517225</v>
+        <v>38.87500780955929</v>
       </c>
       <c r="C18">
-        <v>25.76065469278369</v>
+        <v>30.54057863804211</v>
       </c>
       <c r="D18">
-        <v>8.909344126921603</v>
+        <v>13.91953765345695</v>
       </c>
       <c r="E18">
-        <v>15.09749612301836</v>
+        <v>15.03085807489985</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.06785304160632</v>
+        <v>2.033372477683245</v>
       </c>
       <c r="H18">
-        <v>42.12904755697964</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.07311286978191</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.177984606992303</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>34.73272532690692</v>
       </c>
       <c r="L18">
-        <v>20.86323562205469</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>22.34289653152198</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.00827506497592</v>
+        <v>38.67334991805173</v>
       </c>
       <c r="C19">
-        <v>25.63074812278097</v>
+        <v>30.38047459921543</v>
       </c>
       <c r="D19">
-        <v>8.864719633325167</v>
+        <v>13.86595992145247</v>
       </c>
       <c r="E19">
-        <v>15.01953137882927</v>
+        <v>14.97357806643634</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.86646129462635</v>
+        <v>2.035443655971862</v>
       </c>
       <c r="H19">
-        <v>41.94204459597336</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>32.9408222728586</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.168227040127406</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>34.54929044996325</v>
       </c>
       <c r="L19">
-        <v>20.75738614112399</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>22.30466072026353</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.69909935560923</v>
+        <v>39.58099430048552</v>
       </c>
       <c r="C20">
-        <v>26.21359433548505</v>
+        <v>31.10143802409868</v>
       </c>
       <c r="D20">
-        <v>9.064901417559264</v>
+        <v>14.10818800679719</v>
       </c>
       <c r="E20">
-        <v>15.36951021570671</v>
+        <v>15.23263536632831</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.7721210718711</v>
+        <v>2.026079559769016</v>
       </c>
       <c r="H20">
-        <v>42.78382179711512</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>33.53718959438997</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.212825321791569</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>35.37479475267945</v>
       </c>
       <c r="L20">
-        <v>21.23243307164259</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>22.47780078599306</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.98193145111451</v>
+        <v>42.64457850078388</v>
       </c>
       <c r="C21">
-        <v>28.14502107439574</v>
+        <v>33.54172696848203</v>
       </c>
       <c r="D21">
-        <v>9.727587007378775</v>
+        <v>14.9450731797798</v>
       </c>
       <c r="E21">
-        <v>16.53259541047908</v>
+        <v>16.1293786244772</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.83785172726472</v>
+        <v>1.993659118832368</v>
       </c>
       <c r="H21">
-        <v>45.80951153494852</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>35.5627986687568</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.375999890670412</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>38.15930002316295</v>
       </c>
       <c r="L21">
-        <v>22.80919880699037</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>23.08094157522268</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.45079806171053</v>
+        <v>44.67390745841504</v>
       </c>
       <c r="C22">
-        <v>29.392425358187</v>
+        <v>35.16426392303411</v>
       </c>
       <c r="D22">
-        <v>10.15493713832026</v>
+        <v>15.51435491352458</v>
       </c>
       <c r="E22">
-        <v>17.28657122731384</v>
+        <v>16.74080239377149</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.87176462539461</v>
+        <v>1.971468925956962</v>
       </c>
       <c r="H22">
-        <v>47.79833187190462</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>36.9372603051908</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.494465969336886</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>40.00275708456535</v>
       </c>
       <c r="L22">
-        <v>23.82970571152507</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>23.49494293635927</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.66856328644554</v>
+        <v>43.58706599685801</v>
       </c>
       <c r="C23">
-        <v>28.72765848809401</v>
+        <v>34.29466176225995</v>
       </c>
       <c r="D23">
-        <v>9.927262875815259</v>
+        <v>15.20807485110671</v>
       </c>
       <c r="E23">
-        <v>16.88448304373592</v>
+        <v>16.41171123514387</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.78571743917359</v>
+        <v>1.983425626236607</v>
       </c>
       <c r="H23">
-        <v>46.7359456048675</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.18779090358868</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.430013901988288</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>39.0155290826203</v>
       </c>
       <c r="L23">
-        <v>23.28564162149635</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>23.27187633692295</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.66131880087153</v>
+        <v>39.53113338786128</v>
       </c>
       <c r="C24">
-        <v>26.18169991286972</v>
+        <v>31.06180891058786</v>
       </c>
       <c r="D24">
-        <v>9.053949338056814</v>
+        <v>14.09481008204387</v>
       </c>
       <c r="E24">
-        <v>15.35034685545812</v>
+        <v>15.21832194528784</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.72242439559765</v>
+        <v>2.026596779254151</v>
       </c>
       <c r="H24">
-        <v>42.73757643872892</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>33.50436896759051</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.210330103296897</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>35.32945387071582</v>
       </c>
       <c r="L24">
-        <v>21.20642850014481</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>22.46822042120403</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.28570750343263</v>
+        <v>35.24197503586547</v>
       </c>
       <c r="C25">
-        <v>23.34062935983394</v>
+        <v>27.71645178239917</v>
       </c>
       <c r="D25">
-        <v>8.077425398726527</v>
+        <v>12.96030091474949</v>
       </c>
       <c r="E25">
-        <v>13.64874733624364</v>
+        <v>14.00718910021329</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.36324335481971</v>
+        <v>2.070541446034027</v>
       </c>
       <c r="H25">
-        <v>38.70772646294005</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>30.67192989867805</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.013096600578967</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>31.48320545910337</v>
       </c>
       <c r="L25">
-        <v>18.8941726293247</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>21.66400799558687</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.25874106209384</v>
+        <v>14.04069538505736</v>
       </c>
       <c r="C2">
-        <v>25.27353910933331</v>
+        <v>7.242720224121444</v>
       </c>
       <c r="D2">
-        <v>12.16123552416849</v>
+        <v>7.025900230638589</v>
       </c>
       <c r="E2">
-        <v>13.15784178562125</v>
+        <v>7.552557506713983</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.101942798967425</v>
+        <v>2.114714399363319</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.893448513108641</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>28.89614563919519</v>
+        <v>11.10465120659521</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.192840648317239</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.20703887681542</v>
       </c>
       <c r="N2">
-        <v>21.10866309643482</v>
+        <v>14.09343978933217</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>19.8630010822597</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.21394703355946</v>
+        <v>13.214262568388</v>
       </c>
       <c r="C3">
-        <v>23.59683118743353</v>
+        <v>7.140382969402015</v>
       </c>
       <c r="D3">
-        <v>11.63652622349862</v>
+        <v>6.540331334820428</v>
       </c>
       <c r="E3">
-        <v>12.60216847314511</v>
+        <v>7.555703398041524</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.123074466480734</v>
+        <v>2.120196586979195</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.825305781483525</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>27.13257926997774</v>
+        <v>10.40452148797766</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.114918653725433</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.895507043427699</v>
       </c>
       <c r="N3">
-        <v>20.74954136629878</v>
+        <v>14.3015113183095</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>19.74409009615127</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.94400225935627</v>
+        <v>12.6856800230026</v>
       </c>
       <c r="C4">
-        <v>22.55380092964973</v>
+        <v>7.076671796053413</v>
       </c>
       <c r="D4">
-        <v>11.32158215006142</v>
+        <v>6.24513576453217</v>
       </c>
       <c r="E4">
-        <v>12.26958118919469</v>
+        <v>7.560890636217861</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.136087582613676</v>
+        <v>2.123669313111463</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.789072333696192</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>26.04205129739795</v>
+        <v>9.95092640467505</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.069382185251864</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.703987205164106</v>
       </c>
       <c r="N4">
-        <v>20.53614664233863</v>
+        <v>14.43245405851835</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>19.6848028736234</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.42266785471615</v>
+        <v>12.46513941695494</v>
       </c>
       <c r="C5">
-        <v>22.12511655165816</v>
+        <v>7.050496302452769</v>
       </c>
       <c r="D5">
-        <v>11.19496554632951</v>
+        <v>6.133318247446617</v>
       </c>
       <c r="E5">
-        <v>12.13609889040753</v>
+        <v>7.563805811803298</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.141414059215477</v>
+        <v>2.125111915755249</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.775616803328325</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>25.59556530660789</v>
+        <v>9.760115603454999</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.051413275295746</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.625991401966226</v>
       </c>
       <c r="N5">
-        <v>20.45080311135195</v>
+        <v>14.48663246102519</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>19.66399925330997</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.33586848836218</v>
+        <v>12.4282145302428</v>
       </c>
       <c r="C6">
-        <v>22.05371047149156</v>
+        <v>7.0461372678517</v>
       </c>
       <c r="D6">
-        <v>11.17404339493952</v>
+        <v>6.114603923946003</v>
       </c>
       <c r="E6">
-        <v>12.11405573136705</v>
+        <v>7.564337766817614</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.142300306276288</v>
+        <v>2.125353133760894</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.773458931158906</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>25.52129985235752</v>
+        <v>9.728071263066306</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.048465227381904</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.613046618038704</v>
       </c>
       <c r="N6">
-        <v>20.43672502228872</v>
+        <v>14.49567864991393</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>19.66074469144302</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.93698692720626</v>
+        <v>12.6827262741268</v>
       </c>
       <c r="C7">
-        <v>22.54803446654032</v>
+        <v>7.076319634939916</v>
       </c>
       <c r="D7">
-        <v>11.31986765377631</v>
+        <v>6.24363768731916</v>
       </c>
       <c r="E7">
-        <v>12.26777281219349</v>
+        <v>7.560926729588584</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.136159305160615</v>
+        <v>2.123688656652101</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.788885687667357</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>26.03603834151239</v>
+        <v>9.948377223624103</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.069137462500384</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.702934973771123</v>
       </c>
       <c r="N7">
-        <v>20.53498933069665</v>
+        <v>14.43318139237385</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>19.68450884713482</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.55650360906155</v>
+        <v>13.76022565090691</v>
       </c>
       <c r="C8">
-        <v>24.69801218288445</v>
+        <v>7.207620392256453</v>
       </c>
       <c r="D8">
-        <v>11.97874293250571</v>
+        <v>6.861935339338827</v>
       </c>
       <c r="E8">
-        <v>12.96437551855935</v>
+        <v>7.552956067305325</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.10923014653883</v>
+        <v>2.116582908302445</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.868725200991088</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>28.28950826454498</v>
+        <v>10.86816266842253</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.165498779473663</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.09973598986866</v>
       </c>
       <c r="N8">
-        <v>20.98325090333321</v>
+        <v>14.16453200150023</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>19.81909637721219</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.64780482682426</v>
+        <v>15.69951373168509</v>
       </c>
       <c r="C9">
-        <v>28.8290218054861</v>
+        <v>7.45786502158806</v>
       </c>
       <c r="D9">
-        <v>13.33578952717354</v>
+        <v>7.982090923737484</v>
       </c>
       <c r="E9">
-        <v>14.40741623708123</v>
+        <v>7.56393687538886</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.055958006117316</v>
+        <v>2.10346499076734</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.075089429634713</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>32.70579655420697</v>
+        <v>12.48435067486207</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.372417228857675</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.87151646355297</v>
       </c>
       <c r="N9">
-        <v>21.92827161481549</v>
+        <v>13.66219461856495</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>20.19593804279447</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40.62597273835785</v>
+        <v>17.09080814721866</v>
       </c>
       <c r="C10">
-        <v>31.93261431688209</v>
+        <v>7.636996693211927</v>
       </c>
       <c r="D10">
-        <v>14.39040697049389</v>
+        <v>8.727027526645387</v>
       </c>
       <c r="E10">
-        <v>15.53474986922013</v>
+        <v>7.58930256384755</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.015163731912266</v>
+        <v>2.094281147580581</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.266316354998161</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>36.32485889825992</v>
+        <v>13.55885738052255</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.534871121678175</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.42931748286673</v>
       </c>
       <c r="N10">
-        <v>22.68037796479592</v>
+        <v>13.30691252976076</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>20.54683195919486</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>42.44487713264506</v>
+        <v>17.71663943787558</v>
       </c>
       <c r="C11">
-        <v>33.38232566553541</v>
+        <v>7.717417971532424</v>
       </c>
       <c r="D11">
-        <v>14.88966654032582</v>
+        <v>9.049452035137273</v>
       </c>
       <c r="E11">
-        <v>16.06993035068581</v>
+        <v>7.604830668577972</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.995811541117316</v>
+        <v>2.090191410155609</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.364781713125647</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>37.97785694505251</v>
+        <v>14.02358171389742</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.610925656800119</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.680126050203</v>
       </c>
       <c r="N11">
-        <v>23.04079504993061</v>
+        <v>13.14802505854523</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>20.72356195945941</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43.13792538310025</v>
+        <v>17.94896750150125</v>
       </c>
       <c r="C12">
-        <v>33.93571894426241</v>
+        <v>7.747715588760482</v>
       </c>
       <c r="D12">
-        <v>15.08243410377679</v>
+        <v>9.16922068602533</v>
       </c>
       <c r="E12">
-        <v>16.2768057715714</v>
+        <v>7.611303539734532</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.988317906775828</v>
+        <v>2.088654485581758</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.404054240929144</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>38.60751180210635</v>
+        <v>14.19613871046967</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.640025451891808</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.77461230530234</v>
       </c>
       <c r="N12">
-        <v>23.1805889236743</v>
+        <v>13.08823065529604</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>20.7930230799528</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>42.9884168906371</v>
+        <v>17.89913778438805</v>
       </c>
       <c r="C13">
-        <v>33.81628917745945</v>
+        <v>7.741197430964833</v>
       </c>
       <c r="D13">
-        <v>15.04073491051237</v>
+        <v>9.143529196352176</v>
       </c>
       <c r="E13">
-        <v>16.23204377319794</v>
+        <v>7.609882824129384</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.989940149465935</v>
+        <v>2.088984981113029</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.395501317464849</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>38.47168567339465</v>
+        <v>14.15912710836523</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.633745120496361</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.75428573223981</v>
       </c>
       <c r="N13">
-        <v>23.1503210582781</v>
+        <v>13.10109219014532</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>20.77794933478399</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>42.50178847169958</v>
+        <v>17.73584625714586</v>
       </c>
       <c r="C14">
-        <v>33.42774739883099</v>
+        <v>7.719913715988969</v>
       </c>
       <c r="D14">
-        <v>14.9054448560746</v>
+        <v>9.059351871179548</v>
       </c>
       <c r="E14">
-        <v>16.08685851195356</v>
+        <v>7.605351206735417</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.995198703219633</v>
+        <v>2.090064735862514</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.367970567550278</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>38.02956573664324</v>
+        <v>14.037846471875</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.613313765976576</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.68790965034888</v>
       </c>
       <c r="N14">
-        <v>23.05222484401749</v>
+        <v>13.14309838066439</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>20.72922528298432</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42.2043754225877</v>
+        <v>17.63522036935408</v>
       </c>
       <c r="C15">
-        <v>33.19042001148096</v>
+        <v>7.706856427038376</v>
       </c>
       <c r="D15">
-        <v>14.82309164090989</v>
+        <v>9.007489036212981</v>
       </c>
       <c r="E15">
-        <v>15.99851351254464</v>
+        <v>7.6026532186593</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.998396379441727</v>
+        <v>2.090727622233681</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.351377638027287</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>37.75933391180245</v>
+        <v>13.96311386995625</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.600837697122003</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.64718681554306</v>
       </c>
       <c r="N15">
-        <v>22.99259362619917</v>
+        <v>13.16887633959893</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>20.69971307471286</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.50751779643102</v>
+        <v>17.04925306351408</v>
       </c>
       <c r="C16">
-        <v>31.8383339051964</v>
+        <v>7.631719241380811</v>
       </c>
       <c r="D16">
-        <v>14.35824134314581</v>
+        <v>8.705628599545289</v>
       </c>
       <c r="E16">
-        <v>15.5003013888064</v>
+        <v>7.588369664458823</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.016408443856586</v>
+        <v>2.094550118398032</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.260138662782435</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>36.2171797232112</v>
+        <v>13.52800524814778</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.52994324034055</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.41286147753564</v>
       </c>
       <c r="N16">
-        <v>22.6572450677031</v>
+        <v>13.31734947054285</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>20.53563315048219</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>39.47070906488281</v>
+        <v>16.68141475316621</v>
       </c>
       <c r="C17">
-        <v>31.013787736956</v>
+        <v>7.585349423687209</v>
       </c>
       <c r="D17">
-        <v>14.07860890068715</v>
+        <v>8.516260862383318</v>
       </c>
       <c r="E17">
-        <v>15.20098877743116</v>
+        <v>7.580642402513959</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.027223135891905</v>
+        <v>2.096917030234125</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.207313270024444</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>35.27450603327221</v>
+        <v>13.25493969902186</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.486996035333879</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.26830715634912</v>
       </c>
       <c r="N17">
-        <v>22.45662101070289</v>
+        <v>13.40911852745507</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>20.43941288205174</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>38.87500780955929</v>
+        <v>16.46675038798611</v>
       </c>
       <c r="C18">
-        <v>30.54057863804211</v>
+        <v>7.558578425364927</v>
       </c>
       <c r="D18">
-        <v>13.91953765345695</v>
+        <v>8.405790682823058</v>
       </c>
       <c r="E18">
-        <v>15.03085807489985</v>
+        <v>7.576572211320015</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.033372477683245</v>
+        <v>2.098286758599603</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.177984606992303</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>34.73272532690692</v>
+        <v>13.09561108790461</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.462497216531355</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.18489018514598</v>
       </c>
       <c r="N18">
-        <v>22.34289653152198</v>
+        <v>13.46216004318769</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>20.38567527448794</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>38.67334991805173</v>
+        <v>16.39353567042683</v>
       </c>
       <c r="C19">
-        <v>30.38047459921543</v>
+        <v>7.549497104299646</v>
       </c>
       <c r="D19">
-        <v>13.86595992145247</v>
+        <v>8.368119849642506</v>
       </c>
       <c r="E19">
-        <v>14.97357806643634</v>
+        <v>7.575257826556457</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.035443655971862</v>
+        <v>2.09875198420967</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.168227040127406</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>34.54929044996325</v>
+        <v>13.0412744575687</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.454237564659893</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.1566019236039</v>
       </c>
       <c r="N19">
-        <v>22.30466072026353</v>
+        <v>13.48016397207289</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>20.36775402433879</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>39.58099430048552</v>
+        <v>16.72089151738474</v>
       </c>
       <c r="C20">
-        <v>31.10143802409868</v>
+        <v>7.590295975637829</v>
       </c>
       <c r="D20">
-        <v>14.10818800679719</v>
+        <v>8.53657961172858</v>
       </c>
       <c r="E20">
-        <v>15.23263536632831</v>
+        <v>7.581426103799608</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.026079559769016</v>
+        <v>2.096664211188056</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.212825321791569</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>35.37479475267945</v>
+        <v>13.28424251738175</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.491546874633514</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.28372399765889</v>
       </c>
       <c r="N20">
-        <v>22.47780078599306</v>
+        <v>13.39932295745453</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>20.44948893531047</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>42.64457850078388</v>
+        <v>17.78393492922023</v>
       </c>
       <c r="C21">
-        <v>33.54172696848203</v>
+        <v>7.726169513214547</v>
       </c>
       <c r="D21">
-        <v>14.9450731797798</v>
+        <v>9.084139613284941</v>
       </c>
       <c r="E21">
-        <v>16.1293786244772</v>
+        <v>7.606666013510231</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.993659118832368</v>
+        <v>2.089747273666086</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.375999890670412</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>38.15930002316295</v>
+        <v>14.07356213812226</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.619306896843219</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.7074196845997</v>
       </c>
       <c r="N21">
-        <v>23.08094157522268</v>
+        <v>13.13075018679531</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>20.74346725354372</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>44.67390745841504</v>
+        <v>18.45156014542811</v>
       </c>
       <c r="C22">
-        <v>35.16426392303411</v>
+        <v>7.814060094835626</v>
       </c>
       <c r="D22">
-        <v>15.51435491352458</v>
+        <v>9.428460368036596</v>
       </c>
       <c r="E22">
-        <v>16.74080239377149</v>
+        <v>7.626625546026373</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.971468925956962</v>
+        <v>2.085294804120644</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.494465969336886</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>40.00275708456535</v>
+        <v>14.56949099574943</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.704547483680881</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.98145202269617</v>
       </c>
       <c r="N22">
-        <v>23.49494293635927</v>
+        <v>12.9573860367262</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>20.95042254453831</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>43.58706599685801</v>
+        <v>18.09769803101997</v>
       </c>
       <c r="C23">
-        <v>34.29466176225995</v>
+        <v>7.767235130765086</v>
       </c>
       <c r="D23">
-        <v>15.20807485110671</v>
+        <v>9.245915587002186</v>
       </c>
       <c r="E23">
-        <v>16.41171123514387</v>
+        <v>7.615649475462935</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.983425626236607</v>
+        <v>2.087665245121082</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.430013901988288</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>39.0155290826203</v>
+        <v>14.30661503565769</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.658896758693858</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.83547865462559</v>
       </c>
       <c r="N23">
-        <v>23.27187633692295</v>
+        <v>13.04972245976332</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>20.83858537721501</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>39.53113338786128</v>
+        <v>16.70305401044569</v>
       </c>
       <c r="C24">
-        <v>31.06180891058786</v>
+        <v>7.588059989285899</v>
       </c>
       <c r="D24">
-        <v>14.09481008204387</v>
+        <v>8.527398492183021</v>
       </c>
       <c r="E24">
-        <v>15.21832194528784</v>
+        <v>7.581070634213631</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.026596779254151</v>
+        <v>2.096778482706139</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.210330103296897</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>35.32945387071582</v>
+        <v>13.27100200331006</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.489488841060309</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.27675500646845</v>
       </c>
       <c r="N24">
-        <v>22.46822042120403</v>
+        <v>13.40375065395297</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>20.44492863397237</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.24197503586547</v>
+        <v>15.19416011629385</v>
       </c>
       <c r="C25">
-        <v>27.71645178239917</v>
+        <v>7.390977535898608</v>
       </c>
       <c r="D25">
-        <v>12.96030091474949</v>
+        <v>7.692921798120652</v>
       </c>
       <c r="E25">
-        <v>14.00718910021329</v>
+        <v>7.558006570554555</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.070541446034027</v>
+        <v>2.106930704845015</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.013096600578967</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>31.48320545910337</v>
+        <v>12.0670810628557</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.314569384913563</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.66399618562759</v>
       </c>
       <c r="N25">
-        <v>21.66400799558687</v>
+        <v>13.7955853072954</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>20.08135064981814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.04069538505736</v>
+        <v>14.321288329005</v>
       </c>
       <c r="C2">
-        <v>7.242720224121444</v>
+        <v>8.646604192923123</v>
       </c>
       <c r="D2">
-        <v>7.025900230638589</v>
+        <v>6.017928980072988</v>
       </c>
       <c r="E2">
-        <v>7.552557506713983</v>
+        <v>12.28302936700223</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.114714399363319</v>
+        <v>3.688617538353932</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.10465120659521</v>
+        <v>10.69774360502349</v>
       </c>
       <c r="L2">
-        <v>6.192840648317239</v>
+        <v>9.985908110676924</v>
       </c>
       <c r="M2">
-        <v>10.20703887681542</v>
+        <v>15.03365585050862</v>
       </c>
       <c r="N2">
-        <v>14.09343978933217</v>
+        <v>21.65834760351715</v>
       </c>
       <c r="O2">
-        <v>19.8630010822597</v>
+        <v>29.24596932324497</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.214262568388</v>
+        <v>14.14172542177571</v>
       </c>
       <c r="C3">
-        <v>7.140382969402015</v>
+        <v>8.613804867984157</v>
       </c>
       <c r="D3">
-        <v>6.540331334820428</v>
+        <v>5.904784179569631</v>
       </c>
       <c r="E3">
-        <v>7.555703398041524</v>
+        <v>12.30714135524266</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.120196586979195</v>
+        <v>3.690701819405806</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.40452148797766</v>
+        <v>10.56478546033813</v>
       </c>
       <c r="L3">
-        <v>6.114918653725433</v>
+        <v>9.994153457459101</v>
       </c>
       <c r="M3">
-        <v>9.895507043427699</v>
+        <v>15.01340464654146</v>
       </c>
       <c r="N3">
-        <v>14.3015113183095</v>
+        <v>21.72020297583565</v>
       </c>
       <c r="O3">
-        <v>19.74409009615127</v>
+        <v>29.30031046805781</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.6856800230026</v>
+        <v>14.03354239880076</v>
       </c>
       <c r="C4">
-        <v>7.076671796053413</v>
+        <v>8.593243794133668</v>
       </c>
       <c r="D4">
-        <v>6.24513576453217</v>
+        <v>5.835975781286467</v>
       </c>
       <c r="E4">
-        <v>7.560890636217861</v>
+        <v>12.32341490554244</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.123669313111463</v>
+        <v>3.692050178124753</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.95092640467505</v>
+        <v>10.48454265620233</v>
       </c>
       <c r="L4">
-        <v>6.069382185251864</v>
+        <v>10.0005542474173</v>
       </c>
       <c r="M4">
-        <v>9.703987205164106</v>
+        <v>15.00337399245945</v>
       </c>
       <c r="N4">
-        <v>14.43245405851835</v>
+        <v>21.76001819161226</v>
       </c>
       <c r="O4">
-        <v>19.6848028736234</v>
+        <v>29.33906286051045</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.46513941695494</v>
+        <v>13.99002994537358</v>
       </c>
       <c r="C5">
-        <v>7.050496302452769</v>
+        <v>8.584760260000234</v>
       </c>
       <c r="D5">
-        <v>6.133318247446617</v>
+        <v>5.808144992623252</v>
       </c>
       <c r="E5">
-        <v>7.563805811803298</v>
+        <v>12.33041613817084</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.125111915755249</v>
+        <v>3.692616950371487</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.760115603454999</v>
+        <v>10.45223176866231</v>
       </c>
       <c r="L5">
-        <v>6.051413275295746</v>
+        <v>10.00349957539474</v>
       </c>
       <c r="M5">
-        <v>9.625991401966226</v>
+        <v>14.99989451839706</v>
       </c>
       <c r="N5">
-        <v>14.48663246102519</v>
+        <v>21.77670603330481</v>
       </c>
       <c r="O5">
-        <v>19.66399925330997</v>
+        <v>29.35620763281619</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.4282145302428</v>
+        <v>13.98284086269947</v>
       </c>
       <c r="C6">
-        <v>7.0461372678517</v>
+        <v>8.583345291741704</v>
       </c>
       <c r="D6">
-        <v>6.114603923946003</v>
+        <v>5.803537590960631</v>
       </c>
       <c r="E6">
-        <v>7.564337766817614</v>
+        <v>12.33160102117061</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.125353133760894</v>
+        <v>3.692712109265847</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.728071263066306</v>
+        <v>10.44689114958459</v>
       </c>
       <c r="L6">
-        <v>6.048465227381904</v>
+        <v>10.00400900872708</v>
       </c>
       <c r="M6">
-        <v>9.613046618038704</v>
+        <v>14.9993535822966</v>
       </c>
       <c r="N6">
-        <v>14.49567864991393</v>
+        <v>21.77950502511382</v>
       </c>
       <c r="O6">
-        <v>19.66074469144302</v>
+        <v>29.35913616509666</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.6827262741268</v>
+        <v>14.03295318573622</v>
       </c>
       <c r="C7">
-        <v>7.076319634939916</v>
+        <v>8.593129804389378</v>
       </c>
       <c r="D7">
-        <v>6.24363768731916</v>
+        <v>5.835599542245977</v>
       </c>
       <c r="E7">
-        <v>7.560926729588584</v>
+        <v>12.3235078295886</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.123688656652101</v>
+        <v>3.692057751672873</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.948377223624103</v>
+        <v>10.48410527648576</v>
       </c>
       <c r="L7">
-        <v>6.069137462500384</v>
+        <v>10.00059260424243</v>
       </c>
       <c r="M7">
-        <v>9.702934973771123</v>
+        <v>15.00332460030397</v>
       </c>
       <c r="N7">
-        <v>14.43318139237385</v>
+        <v>21.76024137416728</v>
       </c>
       <c r="O7">
-        <v>19.68450884713482</v>
+        <v>29.33928860564346</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.76022565090691</v>
+        <v>14.2589774233146</v>
       </c>
       <c r="C8">
-        <v>7.207620392256453</v>
+        <v>8.635383455422406</v>
       </c>
       <c r="D8">
-        <v>6.861935339338827</v>
+        <v>5.978804456809974</v>
       </c>
       <c r="E8">
-        <v>7.552956067305325</v>
+        <v>12.29103854565915</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.116582908302445</v>
+        <v>3.68932199312195</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.86816266842253</v>
+        <v>10.6516333848984</v>
       </c>
       <c r="L8">
-        <v>6.165498779473663</v>
+        <v>9.988473681974275</v>
       </c>
       <c r="M8">
-        <v>10.09973598986866</v>
+        <v>15.02617666598861</v>
       </c>
       <c r="N8">
-        <v>14.16453200150023</v>
+        <v>21.6792950474263</v>
       </c>
       <c r="O8">
-        <v>19.81909637721219</v>
+        <v>29.26358719510085</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.69951373168509</v>
+        <v>14.71627766173217</v>
       </c>
       <c r="C9">
-        <v>7.45786502158806</v>
+        <v>8.714832410458193</v>
       </c>
       <c r="D9">
-        <v>7.982090923737484</v>
+        <v>6.263043687533814</v>
       </c>
       <c r="E9">
-        <v>7.56393687538886</v>
+        <v>12.2390057770985</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.10346499076734</v>
+        <v>3.684499010433821</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.48435067486207</v>
+        <v>10.98951545265167</v>
       </c>
       <c r="L9">
-        <v>6.372417228857675</v>
+        <v>9.975303426027835</v>
       </c>
       <c r="M9">
-        <v>10.87151646355297</v>
+        <v>15.08988575344905</v>
       </c>
       <c r="N9">
-        <v>13.66219461856495</v>
+        <v>21.53506985348728</v>
       </c>
       <c r="O9">
-        <v>20.19593804279447</v>
+        <v>29.15794586014215</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.09080814721866</v>
+        <v>15.05765806737127</v>
       </c>
       <c r="C10">
-        <v>7.636996693211927</v>
+        <v>8.771045942057173</v>
       </c>
       <c r="D10">
-        <v>8.727027526645387</v>
+        <v>6.471543360563707</v>
       </c>
       <c r="E10">
-        <v>7.58930256384755</v>
+        <v>12.20785380691189</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.094281147580581</v>
+        <v>3.681282393769993</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.55885738052255</v>
+        <v>11.24117165185824</v>
       </c>
       <c r="L10">
-        <v>6.534871121678175</v>
+        <v>9.972053694644266</v>
       </c>
       <c r="M10">
-        <v>11.42931748286673</v>
+        <v>15.14795629395698</v>
       </c>
       <c r="N10">
-        <v>13.30691252976076</v>
+        <v>21.43787419598732</v>
       </c>
       <c r="O10">
-        <v>20.54683195919486</v>
+        <v>29.10651057287802</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.71663943787558</v>
+        <v>15.21346357127441</v>
       </c>
       <c r="C11">
-        <v>7.717417971532424</v>
+        <v>8.796133784258084</v>
       </c>
       <c r="D11">
-        <v>9.049452035137273</v>
+        <v>6.565837737080672</v>
       </c>
       <c r="E11">
-        <v>7.604830668577972</v>
+        <v>12.19521425894816</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.090191410155609</v>
+        <v>3.67988929807007</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.02358171389742</v>
+        <v>11.35591475516005</v>
       </c>
       <c r="L11">
-        <v>6.610925656800119</v>
+        <v>9.971962523924059</v>
       </c>
       <c r="M11">
-        <v>11.680126050203</v>
+        <v>15.17675780925302</v>
       </c>
       <c r="N11">
-        <v>13.14802505854523</v>
+        <v>21.3955441008075</v>
       </c>
       <c r="O11">
-        <v>20.72356195945941</v>
+        <v>29.08880843127054</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.94896750150125</v>
+        <v>15.27248134409228</v>
       </c>
       <c r="C12">
-        <v>7.747715588760482</v>
+        <v>8.805562815809518</v>
       </c>
       <c r="D12">
-        <v>9.16922068602533</v>
+        <v>6.601426821641369</v>
       </c>
       <c r="E12">
-        <v>7.611303539734532</v>
+        <v>12.19064786685181</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.088654485581758</v>
+        <v>3.679371801591695</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.19613871046967</v>
+        <v>11.39936321532431</v>
       </c>
       <c r="L12">
-        <v>6.640025451891808</v>
+        <v>9.972126636652954</v>
       </c>
       <c r="M12">
-        <v>11.77461230530234</v>
+        <v>15.18800128142809</v>
       </c>
       <c r="N12">
-        <v>13.08823065529604</v>
+        <v>21.37978458362802</v>
       </c>
       <c r="O12">
-        <v>20.7930230799528</v>
+        <v>29.0829246824765</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.89913778438805</v>
+        <v>15.25977090142814</v>
       </c>
       <c r="C13">
-        <v>7.741197430964833</v>
+        <v>8.803535296719858</v>
       </c>
       <c r="D13">
-        <v>9.143529196352176</v>
+        <v>6.593767924041327</v>
       </c>
       <c r="E13">
-        <v>7.609882824129384</v>
+        <v>12.19162154486428</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.088984981113029</v>
+        <v>3.67948280804176</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.15912710836523</v>
+        <v>11.39000654229383</v>
       </c>
       <c r="L13">
-        <v>6.633745120496361</v>
+        <v>9.972082471653458</v>
       </c>
       <c r="M13">
-        <v>11.75428573223981</v>
+        <v>15.1855649110049</v>
       </c>
       <c r="N13">
-        <v>13.10109219014532</v>
+        <v>21.38316668709111</v>
       </c>
       <c r="O13">
-        <v>20.77794933478399</v>
+        <v>29.08415539189593</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.73584625714586</v>
+        <v>15.21831896076953</v>
       </c>
       <c r="C14">
-        <v>7.719913715988969</v>
+        <v>8.796910952237113</v>
       </c>
       <c r="D14">
-        <v>9.059351871179548</v>
+        <v>6.568768254535967</v>
       </c>
       <c r="E14">
-        <v>7.605351206735417</v>
+        <v>12.19483417326654</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.090064735862514</v>
+        <v>3.679846522420044</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.037846471875</v>
+        <v>11.35948955824226</v>
       </c>
       <c r="L14">
-        <v>6.613313765976576</v>
+        <v>9.971972049627386</v>
       </c>
       <c r="M14">
-        <v>11.68790965034888</v>
+        <v>15.17767609875416</v>
       </c>
       <c r="N14">
-        <v>13.14309838066439</v>
+        <v>21.39424215116263</v>
       </c>
       <c r="O14">
-        <v>20.72922528298432</v>
+        <v>29.08830794203856</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.63522036935408</v>
+        <v>15.19292911090809</v>
       </c>
       <c r="C15">
-        <v>7.706856427038376</v>
+        <v>8.792844031648036</v>
       </c>
       <c r="D15">
-        <v>9.007489036212981</v>
+        <v>6.55343873617233</v>
       </c>
       <c r="E15">
-        <v>7.6026532186593</v>
+        <v>12.19683063265024</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.090727622233681</v>
+        <v>3.68007061382165</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.96311386995625</v>
+        <v>11.34079555334211</v>
       </c>
       <c r="L15">
-        <v>6.600837697122003</v>
+        <v>9.971930255378842</v>
       </c>
       <c r="M15">
-        <v>11.64718681554306</v>
+        <v>15.17288767242358</v>
       </c>
       <c r="N15">
-        <v>13.16887633959893</v>
+        <v>21.40106132011308</v>
       </c>
       <c r="O15">
-        <v>20.69971307471286</v>
+        <v>29.09095825624978</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.04925306351408</v>
+        <v>15.0474812821924</v>
       </c>
       <c r="C16">
-        <v>7.631719241380811</v>
+        <v>8.769396517397599</v>
       </c>
       <c r="D16">
-        <v>8.705628599545289</v>
+        <v>6.465366526032754</v>
       </c>
       <c r="E16">
-        <v>7.588369664458823</v>
+        <v>12.20871062483808</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.094550118398032</v>
+        <v>3.681374843335042</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.52800524814778</v>
+        <v>11.23367476998757</v>
       </c>
       <c r="L16">
-        <v>6.52994324034055</v>
+        <v>9.972087496299126</v>
       </c>
       <c r="M16">
-        <v>11.41286147753564</v>
+        <v>15.14612153435244</v>
       </c>
       <c r="N16">
-        <v>13.31734947054285</v>
+        <v>21.4406784024521</v>
       </c>
       <c r="O16">
-        <v>20.53563315048219</v>
+        <v>29.10778212491207</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.68141475316621</v>
+        <v>14.95834434049032</v>
       </c>
       <c r="C17">
-        <v>7.585349423687209</v>
+        <v>8.754887134210325</v>
       </c>
       <c r="D17">
-        <v>8.516260862383318</v>
+        <v>6.411167323720704</v>
       </c>
       <c r="E17">
-        <v>7.580642402513959</v>
+        <v>12.21639068420917</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.096917030234125</v>
+        <v>3.682192879544376</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.25493969902186</v>
+        <v>11.16799828430762</v>
       </c>
       <c r="L17">
-        <v>6.486996035333879</v>
+        <v>9.972538671061649</v>
       </c>
       <c r="M17">
-        <v>11.26830715634912</v>
+        <v>15.13030806613655</v>
       </c>
       <c r="N17">
-        <v>13.40911852745507</v>
+        <v>21.46546416679442</v>
       </c>
       <c r="O17">
-        <v>20.43941288205174</v>
+        <v>29.11956242280408</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.46675038798611</v>
+        <v>14.9071263874717</v>
       </c>
       <c r="C18">
-        <v>7.558578425364927</v>
+        <v>8.746496262104282</v>
       </c>
       <c r="D18">
-        <v>8.405790682823058</v>
+        <v>6.379943501379794</v>
       </c>
       <c r="E18">
-        <v>7.576572211320015</v>
+        <v>12.22095223642071</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.098286758599603</v>
+        <v>3.68266999904167</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.09561108790461</v>
+        <v>11.13025005735853</v>
       </c>
       <c r="L18">
-        <v>6.462497216531355</v>
+        <v>9.972928794318888</v>
       </c>
       <c r="M18">
-        <v>11.18489018514598</v>
+        <v>15.12143743966856</v>
       </c>
       <c r="N18">
-        <v>13.46216004318769</v>
+        <v>21.47989774108268</v>
       </c>
       <c r="O18">
-        <v>20.38567527448794</v>
+        <v>29.12687425896868</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.39353567042683</v>
+        <v>14.88979538842746</v>
       </c>
       <c r="C19">
-        <v>7.549497104299646</v>
+        <v>8.743647498018028</v>
       </c>
       <c r="D19">
-        <v>8.368119849642506</v>
+        <v>6.369364293342067</v>
       </c>
       <c r="E19">
-        <v>7.575257826556457</v>
+        <v>12.22252147296783</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.09875198420967</v>
+        <v>3.682832679749455</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.0412744575687</v>
+        <v>11.11747505647762</v>
       </c>
       <c r="L19">
-        <v>6.454237564659893</v>
+        <v>9.973083341549867</v>
       </c>
       <c r="M19">
-        <v>11.1566019236039</v>
+        <v>15.11847279496381</v>
       </c>
       <c r="N19">
-        <v>13.48016397207289</v>
+        <v>21.48481521206596</v>
       </c>
       <c r="O19">
-        <v>20.36775402433879</v>
+        <v>29.12944197763861</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.72089151738474</v>
+        <v>14.96782822231719</v>
       </c>
       <c r="C20">
-        <v>7.590295975637829</v>
+        <v>8.756436399181936</v>
       </c>
       <c r="D20">
-        <v>8.53657961172858</v>
+        <v>6.416942368976727</v>
       </c>
       <c r="E20">
-        <v>7.581426103799608</v>
+        <v>12.21555820840321</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.096664211188056</v>
+        <v>3.682105114789544</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.28424251738175</v>
+        <v>11.17498714188652</v>
       </c>
       <c r="L20">
-        <v>6.491546874633514</v>
+        <v>9.972477129916523</v>
       </c>
       <c r="M20">
-        <v>11.28372399765889</v>
+        <v>15.13196820669141</v>
       </c>
       <c r="N20">
-        <v>13.39932295745453</v>
+        <v>21.46280732121459</v>
       </c>
       <c r="O20">
-        <v>20.44948893531047</v>
+        <v>29.11825289833195</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.78393492922023</v>
+        <v>15.23049436051414</v>
       </c>
       <c r="C21">
-        <v>7.726169513214547</v>
+        <v>8.798858627561112</v>
       </c>
       <c r="D21">
-        <v>9.084139613284941</v>
+        <v>6.576114767960386</v>
       </c>
       <c r="E21">
-        <v>7.606666013510231</v>
+        <v>12.19388458019485</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.089747273666086</v>
+        <v>3.67973941864324</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.07356213812226</v>
+        <v>11.36845351311137</v>
       </c>
       <c r="L21">
-        <v>6.619306896843219</v>
+        <v>9.971999099304425</v>
       </c>
       <c r="M21">
-        <v>11.7074196845997</v>
+        <v>15.17998413848481</v>
       </c>
       <c r="N21">
-        <v>13.13075018679531</v>
+        <v>21.39098170021766</v>
       </c>
       <c r="O21">
-        <v>20.74346725354372</v>
+        <v>29.08706598863492</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.45156014542811</v>
+        <v>15.40223959107221</v>
       </c>
       <c r="C22">
-        <v>7.814060094835626</v>
+        <v>8.826168319134666</v>
       </c>
       <c r="D22">
-        <v>9.428460368036596</v>
+        <v>6.679437970094476</v>
       </c>
       <c r="E22">
-        <v>7.626625546026373</v>
+        <v>12.1810013747547</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.085294804120644</v>
+        <v>3.67825178926298</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.56949099574943</v>
+        <v>11.49486383186476</v>
       </c>
       <c r="L22">
-        <v>6.704547483680881</v>
+        <v>9.972844049100635</v>
       </c>
       <c r="M22">
-        <v>11.98145202269617</v>
+        <v>15.21332638695961</v>
       </c>
       <c r="N22">
-        <v>12.9573860367262</v>
+        <v>21.34561262792341</v>
       </c>
       <c r="O22">
-        <v>20.95042254453831</v>
+        <v>29.07146125555099</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.09769803101997</v>
+        <v>15.31058689219654</v>
       </c>
       <c r="C23">
-        <v>7.767235130765086</v>
+        <v>8.811631184519825</v>
       </c>
       <c r="D23">
-        <v>9.245915587002186</v>
+        <v>6.624369196491586</v>
       </c>
       <c r="E23">
-        <v>7.615649475462935</v>
+        <v>12.18776021173604</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.087665245121082</v>
+        <v>3.679040429720631</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.30661503565769</v>
+        <v>11.42741213724521</v>
       </c>
       <c r="L23">
-        <v>6.658896758693858</v>
+        <v>9.972287478323393</v>
       </c>
       <c r="M23">
-        <v>11.83547865462559</v>
+        <v>15.19535363116803</v>
       </c>
       <c r="N23">
-        <v>13.04972245976332</v>
+        <v>21.36968335679683</v>
       </c>
       <c r="O23">
-        <v>20.83858537721501</v>
+        <v>29.07935251682654</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.70305401044569</v>
+        <v>14.96354046766255</v>
       </c>
       <c r="C24">
-        <v>7.588059989285899</v>
+        <v>8.75573612973885</v>
       </c>
       <c r="D24">
-        <v>8.527398492183021</v>
+        <v>6.414331667355667</v>
       </c>
       <c r="E24">
-        <v>7.581070634213631</v>
+        <v>12.21593411534908</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.096778482706139</v>
+        <v>3.682144771989049</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.27100200331006</v>
+        <v>11.17182744496065</v>
       </c>
       <c r="L24">
-        <v>6.489488841060309</v>
+        <v>9.972504545376202</v>
       </c>
       <c r="M24">
-        <v>11.27675500646845</v>
+        <v>15.13121696908757</v>
       </c>
       <c r="N24">
-        <v>13.40375065395297</v>
+        <v>21.46400790813229</v>
       </c>
       <c r="O24">
-        <v>20.44492863397237</v>
+        <v>29.11884325482908</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.19416011629385</v>
+        <v>14.59138765933582</v>
       </c>
       <c r="C25">
-        <v>7.390977535898608</v>
+        <v>8.693712555539388</v>
       </c>
       <c r="D25">
-        <v>7.692921798120652</v>
+        <v>6.186037484577279</v>
       </c>
       <c r="E25">
-        <v>7.558006570554555</v>
+        <v>12.25183786855137</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.106930704845015</v>
+        <v>3.685746110127259</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.0670810628557</v>
+        <v>10.89734424562349</v>
       </c>
       <c r="L25">
-        <v>6.314569384913563</v>
+        <v>9.977735151561216</v>
       </c>
       <c r="M25">
-        <v>10.66399618562759</v>
+        <v>15.07065275427342</v>
       </c>
       <c r="N25">
-        <v>13.7955853072954</v>
+        <v>21.57254140668876</v>
       </c>
       <c r="O25">
-        <v>20.08135064981814</v>
+        <v>29.18193216302332</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.321288329005</v>
+        <v>14.04069538505736</v>
       </c>
       <c r="C2">
-        <v>8.646604192923123</v>
+        <v>7.242720224121308</v>
       </c>
       <c r="D2">
-        <v>6.017928980072988</v>
+        <v>7.02590023063865</v>
       </c>
       <c r="E2">
-        <v>12.28302936700223</v>
+        <v>7.552557506713931</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.688617538353932</v>
+        <v>2.114714399363184</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.69774360502349</v>
+        <v>11.10465120659518</v>
       </c>
       <c r="L2">
-        <v>9.985908110676924</v>
+        <v>6.192840648317248</v>
       </c>
       <c r="M2">
-        <v>15.03365585050862</v>
+        <v>10.20703887681543</v>
       </c>
       <c r="N2">
-        <v>21.65834760351715</v>
+        <v>14.0934397893322</v>
       </c>
       <c r="O2">
-        <v>29.24596932324497</v>
+        <v>19.86300108225977</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.14172542177571</v>
+        <v>13.21426256838799</v>
       </c>
       <c r="C3">
-        <v>8.613804867984157</v>
+        <v>7.140382969402014</v>
       </c>
       <c r="D3">
-        <v>5.904784179569631</v>
+        <v>6.540331334820479</v>
       </c>
       <c r="E3">
-        <v>12.30714135524266</v>
+        <v>7.555703398041535</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.690701819405806</v>
+        <v>2.12019658697906</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.56478546033813</v>
+        <v>10.40452148797769</v>
       </c>
       <c r="L3">
-        <v>9.994153457459101</v>
+        <v>6.114918653725433</v>
       </c>
       <c r="M3">
-        <v>15.01340464654146</v>
+        <v>9.895507043427685</v>
       </c>
       <c r="N3">
-        <v>21.72020297583565</v>
+        <v>14.3015113183095</v>
       </c>
       <c r="O3">
-        <v>29.30031046805781</v>
+        <v>19.74409009615126</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.03354239880076</v>
+        <v>12.68568002300256</v>
       </c>
       <c r="C4">
-        <v>8.593243794133668</v>
+        <v>7.076671796053543</v>
       </c>
       <c r="D4">
-        <v>5.835975781286467</v>
+        <v>6.245135764532186</v>
       </c>
       <c r="E4">
-        <v>12.32341490554244</v>
+        <v>7.560890636217867</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.692050178124753</v>
+        <v>2.123669313111462</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.48454265620233</v>
+        <v>9.950926404675137</v>
       </c>
       <c r="L4">
-        <v>10.0005542474173</v>
+        <v>6.069382185251806</v>
       </c>
       <c r="M4">
-        <v>15.00337399245945</v>
+        <v>9.703987205164051</v>
       </c>
       <c r="N4">
-        <v>21.76001819161226</v>
+        <v>14.43245405851832</v>
       </c>
       <c r="O4">
-        <v>29.33906286051045</v>
+        <v>19.68480287362325</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.99002994537358</v>
+        <v>12.46513941695498</v>
       </c>
       <c r="C5">
-        <v>8.584760260000234</v>
+        <v>7.050496302452641</v>
       </c>
       <c r="D5">
-        <v>5.808144992623252</v>
+        <v>6.133318247446629</v>
       </c>
       <c r="E5">
-        <v>12.33041613817084</v>
+        <v>7.563805811803426</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.692616950371487</v>
+        <v>2.125111915754981</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.45223176866231</v>
+        <v>9.760115603454956</v>
       </c>
       <c r="L5">
-        <v>10.00349957539474</v>
+        <v>6.051413275295883</v>
       </c>
       <c r="M5">
-        <v>14.99989451839706</v>
+        <v>9.625991401966317</v>
       </c>
       <c r="N5">
-        <v>21.77670603330481</v>
+        <v>14.48663246102526</v>
       </c>
       <c r="O5">
-        <v>29.35620763281619</v>
+        <v>19.66399925331013</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.98284086269947</v>
+        <v>12.42821453024285</v>
       </c>
       <c r="C6">
-        <v>8.583345291741704</v>
+        <v>7.046137267852084</v>
       </c>
       <c r="D6">
-        <v>5.803537590960631</v>
+        <v>6.114603923946057</v>
       </c>
       <c r="E6">
-        <v>12.33160102117061</v>
+        <v>7.564337766817609</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.692712109265847</v>
+        <v>2.125353133761028</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.44689114958459</v>
+        <v>9.728071263066319</v>
       </c>
       <c r="L6">
-        <v>10.00400900872708</v>
+        <v>6.048465227381851</v>
       </c>
       <c r="M6">
-        <v>14.9993535822966</v>
+        <v>9.613046618038727</v>
       </c>
       <c r="N6">
-        <v>21.77950502511382</v>
+        <v>14.49567864991407</v>
       </c>
       <c r="O6">
-        <v>29.35913616509666</v>
+        <v>19.66074469144322</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.03295318573622</v>
+        <v>12.6827262741268</v>
       </c>
       <c r="C7">
-        <v>8.593129804389378</v>
+        <v>7.076319634939927</v>
       </c>
       <c r="D7">
-        <v>5.835599542245977</v>
+        <v>6.243637687319187</v>
       </c>
       <c r="E7">
-        <v>12.3235078295886</v>
+        <v>7.560926729588586</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.692057751672873</v>
+        <v>2.123688656651968</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.48410527648576</v>
+        <v>9.948377223624124</v>
       </c>
       <c r="L7">
-        <v>10.00059260424243</v>
+        <v>6.069137462500334</v>
       </c>
       <c r="M7">
-        <v>15.00332460030397</v>
+        <v>9.702934973771105</v>
       </c>
       <c r="N7">
-        <v>21.76024137416728</v>
+        <v>14.43318139237372</v>
       </c>
       <c r="O7">
-        <v>29.33928860564346</v>
+        <v>19.68450884713461</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.2589774233146</v>
+        <v>13.76022565090689</v>
       </c>
       <c r="C8">
-        <v>8.635383455422406</v>
+        <v>7.207620392256578</v>
       </c>
       <c r="D8">
-        <v>5.978804456809974</v>
+        <v>6.861935339338896</v>
       </c>
       <c r="E8">
-        <v>12.29103854565915</v>
+        <v>7.552956067305383</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.68932199312195</v>
+        <v>2.11658290830231</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.6516333848984</v>
+        <v>10.86816266842254</v>
       </c>
       <c r="L8">
-        <v>9.988473681974275</v>
+        <v>6.165498779473719</v>
       </c>
       <c r="M8">
-        <v>15.02617666598861</v>
+        <v>10.0997359898687</v>
       </c>
       <c r="N8">
-        <v>21.6792950474263</v>
+        <v>14.1645320015002</v>
       </c>
       <c r="O8">
-        <v>29.26358719510085</v>
+        <v>19.81909637721213</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.71627766173217</v>
+        <v>15.69951373168509</v>
       </c>
       <c r="C9">
-        <v>8.714832410458193</v>
+        <v>7.457865021588443</v>
       </c>
       <c r="D9">
-        <v>6.263043687533814</v>
+        <v>7.98209092373747</v>
       </c>
       <c r="E9">
-        <v>12.2390057770985</v>
+        <v>7.563936875388959</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.684499010433821</v>
+        <v>2.103464990767473</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.98951545265167</v>
+        <v>12.48435067486212</v>
       </c>
       <c r="L9">
-        <v>9.975303426027835</v>
+        <v>6.372417228857675</v>
       </c>
       <c r="M9">
-        <v>15.08988575344905</v>
+        <v>10.87151646355297</v>
       </c>
       <c r="N9">
-        <v>21.53506985348728</v>
+        <v>13.66219461856495</v>
       </c>
       <c r="O9">
-        <v>29.15794586014215</v>
+        <v>20.19593804279441</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.05765806737127</v>
+        <v>17.09080814721867</v>
       </c>
       <c r="C10">
-        <v>8.771045942057173</v>
+        <v>7.636996693212172</v>
       </c>
       <c r="D10">
-        <v>6.471543360563707</v>
+        <v>8.727027526645356</v>
       </c>
       <c r="E10">
-        <v>12.20785380691189</v>
+        <v>7.589302563847594</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.681282393769993</v>
+        <v>2.094281147580712</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.24117165185824</v>
+        <v>13.55885738052256</v>
       </c>
       <c r="L10">
-        <v>9.972053694644266</v>
+        <v>6.534871121678214</v>
       </c>
       <c r="M10">
-        <v>15.14795629395698</v>
+        <v>11.42931748286674</v>
       </c>
       <c r="N10">
-        <v>21.43787419598732</v>
+        <v>13.30691252976083</v>
       </c>
       <c r="O10">
-        <v>29.10651057287802</v>
+        <v>20.54683195919489</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.21346357127441</v>
+        <v>17.7166394378756</v>
       </c>
       <c r="C11">
-        <v>8.796133784258084</v>
+        <v>7.717417971532299</v>
       </c>
       <c r="D11">
-        <v>6.565837737080672</v>
+        <v>9.049452035137396</v>
       </c>
       <c r="E11">
-        <v>12.19521425894816</v>
+        <v>7.604830668577971</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.67988929807007</v>
+        <v>2.09019141015561</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.35591475516005</v>
+        <v>14.02358171389741</v>
       </c>
       <c r="L11">
-        <v>9.971962523924059</v>
+        <v>6.610925656800116</v>
       </c>
       <c r="M11">
-        <v>15.17675780925302</v>
+        <v>11.68012605020302</v>
       </c>
       <c r="N11">
-        <v>21.3955441008075</v>
+        <v>13.14802505854506</v>
       </c>
       <c r="O11">
-        <v>29.08880843127054</v>
+        <v>20.72356195945933</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.27248134409228</v>
+        <v>17.94896750150126</v>
       </c>
       <c r="C12">
-        <v>8.805562815809518</v>
+        <v>7.747715588760226</v>
       </c>
       <c r="D12">
-        <v>6.601426821641369</v>
+        <v>9.169220686025376</v>
       </c>
       <c r="E12">
-        <v>12.19064786685181</v>
+        <v>7.611303539734389</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.679371801591695</v>
+        <v>2.088654485581225</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.39936321532431</v>
+        <v>14.19613871046965</v>
       </c>
       <c r="L12">
-        <v>9.972126636652954</v>
+        <v>6.640025451891788</v>
       </c>
       <c r="M12">
-        <v>15.18800128142809</v>
+        <v>11.77461230530232</v>
       </c>
       <c r="N12">
-        <v>21.37978458362802</v>
+        <v>13.08823065529604</v>
       </c>
       <c r="O12">
-        <v>29.0829246824765</v>
+        <v>20.79302307995285</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.25977090142814</v>
+        <v>17.89913778438805</v>
       </c>
       <c r="C13">
-        <v>8.803535296719858</v>
+        <v>7.741197430964821</v>
       </c>
       <c r="D13">
-        <v>6.593767924041327</v>
+        <v>9.143529196352137</v>
       </c>
       <c r="E13">
-        <v>12.19162154486428</v>
+        <v>7.609882824129333</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.67948280804176</v>
+        <v>2.088984981113298</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.39000654229383</v>
+        <v>14.15912710836523</v>
       </c>
       <c r="L13">
-        <v>9.972082471653458</v>
+        <v>6.633745120496338</v>
       </c>
       <c r="M13">
-        <v>15.1855649110049</v>
+        <v>11.7542857322398</v>
       </c>
       <c r="N13">
-        <v>21.38316668709111</v>
+        <v>13.10109219014531</v>
       </c>
       <c r="O13">
-        <v>29.08415539189593</v>
+        <v>20.77794933478398</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.21831896076953</v>
+        <v>17.73584625714584</v>
       </c>
       <c r="C14">
-        <v>8.796910952237113</v>
+        <v>7.719913715989203</v>
       </c>
       <c r="D14">
-        <v>6.568768254535967</v>
+        <v>9.059351871179548</v>
       </c>
       <c r="E14">
-        <v>12.19483417326654</v>
+        <v>7.605351206735521</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.679846522420044</v>
+        <v>2.090064735862515</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.35948955824226</v>
+        <v>14.03784647187498</v>
       </c>
       <c r="L14">
-        <v>9.971972049627386</v>
+        <v>6.613313765976618</v>
       </c>
       <c r="M14">
-        <v>15.17767609875416</v>
+        <v>11.6879096503489</v>
       </c>
       <c r="N14">
-        <v>21.39424215116263</v>
+        <v>13.14309838066436</v>
       </c>
       <c r="O14">
-        <v>29.08830794203856</v>
+        <v>20.7292252829843</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.19292911090809</v>
+        <v>17.63522036935409</v>
       </c>
       <c r="C15">
-        <v>8.792844031648036</v>
+        <v>7.706856427038372</v>
       </c>
       <c r="D15">
-        <v>6.55343873617233</v>
+        <v>9.007489036213064</v>
       </c>
       <c r="E15">
-        <v>12.19683063265024</v>
+        <v>7.60265321865925</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.68007061382165</v>
+        <v>2.090727622233682</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.34079555334211</v>
+        <v>13.96311386995625</v>
       </c>
       <c r="L15">
-        <v>9.971930255378842</v>
+        <v>6.600837697121982</v>
       </c>
       <c r="M15">
-        <v>15.17288767242358</v>
+        <v>11.64718681554304</v>
       </c>
       <c r="N15">
-        <v>21.40106132011308</v>
+        <v>13.16887633959894</v>
       </c>
       <c r="O15">
-        <v>29.09095825624978</v>
+        <v>20.69971307471289</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.0474812821924</v>
+        <v>17.04925306351413</v>
       </c>
       <c r="C16">
-        <v>8.769396517397599</v>
+        <v>7.631719241380555</v>
       </c>
       <c r="D16">
-        <v>6.465366526032754</v>
+        <v>8.705628599545244</v>
       </c>
       <c r="E16">
-        <v>12.20871062483808</v>
+        <v>7.58836966445876</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.681374843335042</v>
+        <v>2.094550118397899</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.23367476998757</v>
+        <v>13.52800524814776</v>
       </c>
       <c r="L16">
-        <v>9.972087496299126</v>
+        <v>6.529943240340565</v>
       </c>
       <c r="M16">
-        <v>15.14612153435244</v>
+        <v>11.41286147753563</v>
       </c>
       <c r="N16">
-        <v>21.4406784024521</v>
+        <v>13.31734947054278</v>
       </c>
       <c r="O16">
-        <v>29.10778212491207</v>
+        <v>20.5356331504822</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.95834434049032</v>
+        <v>16.68141475316622</v>
       </c>
       <c r="C17">
-        <v>8.754887134210325</v>
+        <v>7.58534942368734</v>
       </c>
       <c r="D17">
-        <v>6.411167323720704</v>
+        <v>8.516260862383227</v>
       </c>
       <c r="E17">
-        <v>12.21639068420917</v>
+        <v>7.580642402513899</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.682192879544376</v>
+        <v>2.096917030234124</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.16799828430762</v>
+        <v>13.25493969902188</v>
       </c>
       <c r="L17">
-        <v>9.972538671061649</v>
+        <v>6.486996035333815</v>
       </c>
       <c r="M17">
-        <v>15.13030806613655</v>
+        <v>11.2683071563491</v>
       </c>
       <c r="N17">
-        <v>21.46546416679442</v>
+        <v>13.40911852745511</v>
       </c>
       <c r="O17">
-        <v>29.11956242280408</v>
+        <v>20.43941288205179</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.9071263874717</v>
+        <v>16.4667503879861</v>
       </c>
       <c r="C18">
-        <v>8.746496262104282</v>
+        <v>7.558578425364915</v>
       </c>
       <c r="D18">
-        <v>6.379943501379794</v>
+        <v>8.405790682823042</v>
       </c>
       <c r="E18">
-        <v>12.22095223642071</v>
+        <v>7.576572211320015</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.68266999904167</v>
+        <v>2.098286758599468</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.13025005735853</v>
+        <v>13.09561108790459</v>
       </c>
       <c r="L18">
-        <v>9.972928794318888</v>
+        <v>6.46249721653135</v>
       </c>
       <c r="M18">
-        <v>15.12143743966856</v>
+        <v>11.18489018514599</v>
       </c>
       <c r="N18">
-        <v>21.47989774108268</v>
+        <v>13.46216004318778</v>
       </c>
       <c r="O18">
-        <v>29.12687425896868</v>
+        <v>20.38567527448804</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.88979538842746</v>
+        <v>16.39353567042685</v>
       </c>
       <c r="C19">
-        <v>8.743647498018028</v>
+        <v>7.549497104299535</v>
       </c>
       <c r="D19">
-        <v>6.369364293342067</v>
+        <v>8.368119849642481</v>
       </c>
       <c r="E19">
-        <v>12.22252147296783</v>
+        <v>7.575257826556392</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.682832679749455</v>
+        <v>2.098751984209669</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.11747505647762</v>
+        <v>13.04127445756872</v>
       </c>
       <c r="L19">
-        <v>9.973083341549867</v>
+        <v>6.454237564659919</v>
       </c>
       <c r="M19">
-        <v>15.11847279496381</v>
+        <v>11.15660192360387</v>
       </c>
       <c r="N19">
-        <v>21.48481521206596</v>
+        <v>13.48016397207281</v>
       </c>
       <c r="O19">
-        <v>29.12944197763861</v>
+        <v>20.36775402433865</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.96782822231719</v>
+        <v>16.72089151738482</v>
       </c>
       <c r="C20">
-        <v>8.756436399181936</v>
+        <v>7.590295975637456</v>
       </c>
       <c r="D20">
-        <v>6.416942368976727</v>
+        <v>8.536579611728577</v>
       </c>
       <c r="E20">
-        <v>12.21555820840321</v>
+        <v>7.581426103799566</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.682105114789544</v>
+        <v>2.096664211188054</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.17498714188652</v>
+        <v>13.2842425173818</v>
       </c>
       <c r="L20">
-        <v>9.972477129916523</v>
+        <v>6.491546874633508</v>
       </c>
       <c r="M20">
-        <v>15.13196820669141</v>
+        <v>11.28372399765887</v>
       </c>
       <c r="N20">
-        <v>21.46280732121459</v>
+        <v>13.3993229574544</v>
       </c>
       <c r="O20">
-        <v>29.11825289833195</v>
+        <v>20.44948893531032</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.23049436051414</v>
+        <v>17.78393492922024</v>
       </c>
       <c r="C21">
-        <v>8.798858627561112</v>
+        <v>7.726169513214801</v>
       </c>
       <c r="D21">
-        <v>6.576114767960386</v>
+        <v>9.084139613284826</v>
       </c>
       <c r="E21">
-        <v>12.19388458019485</v>
+        <v>7.606666013510267</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.67973941864324</v>
+        <v>2.089747273666352</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.36845351311137</v>
+        <v>14.07356213812232</v>
       </c>
       <c r="L21">
-        <v>9.971999099304425</v>
+        <v>6.61930689684316</v>
       </c>
       <c r="M21">
-        <v>15.17998413848481</v>
+        <v>11.70741968459968</v>
       </c>
       <c r="N21">
-        <v>21.39098170021766</v>
+        <v>13.13075018679528</v>
       </c>
       <c r="O21">
-        <v>29.08706598863492</v>
+        <v>20.74346725354365</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.40223959107221</v>
+        <v>18.45156014542816</v>
       </c>
       <c r="C22">
-        <v>8.826168319134666</v>
+        <v>7.81406009483539</v>
       </c>
       <c r="D22">
-        <v>6.679437970094476</v>
+        <v>9.428460368036587</v>
       </c>
       <c r="E22">
-        <v>12.1810013747547</v>
+        <v>7.626625546026417</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.67825178926298</v>
+        <v>2.085294804120775</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.49486383186476</v>
+        <v>14.56949099574944</v>
       </c>
       <c r="L22">
-        <v>9.972844049100635</v>
+        <v>6.704547483680931</v>
       </c>
       <c r="M22">
-        <v>15.21332638695961</v>
+        <v>11.98145202269619</v>
       </c>
       <c r="N22">
-        <v>21.34561262792341</v>
+        <v>12.95738603672623</v>
       </c>
       <c r="O22">
-        <v>29.07146125555099</v>
+        <v>20.95042254453834</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.31058689219654</v>
+        <v>18.09769803101996</v>
       </c>
       <c r="C23">
-        <v>8.811631184519825</v>
+        <v>7.767235130765199</v>
       </c>
       <c r="D23">
-        <v>6.624369196491586</v>
+        <v>9.245915587002163</v>
       </c>
       <c r="E23">
-        <v>12.18776021173604</v>
+        <v>7.615649475462925</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.679040429720631</v>
+        <v>2.087665245121348</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.42741213724521</v>
+        <v>14.30661503565767</v>
       </c>
       <c r="L23">
-        <v>9.972287478323393</v>
+        <v>6.658896758693832</v>
       </c>
       <c r="M23">
-        <v>15.19535363116803</v>
+        <v>11.83547865462558</v>
       </c>
       <c r="N23">
-        <v>21.36968335679683</v>
+        <v>13.04972245976335</v>
       </c>
       <c r="O23">
-        <v>29.07935251682654</v>
+        <v>20.83858537721501</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.96354046766255</v>
+        <v>16.70305401044567</v>
       </c>
       <c r="C24">
-        <v>8.75573612973885</v>
+        <v>7.588059989285766</v>
       </c>
       <c r="D24">
-        <v>6.414331667355667</v>
+        <v>8.527398492183007</v>
       </c>
       <c r="E24">
-        <v>12.21593411534908</v>
+        <v>7.581070634213647</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.682144771989049</v>
+        <v>2.096778482706273</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.17182744496065</v>
+        <v>13.27100200331002</v>
       </c>
       <c r="L24">
-        <v>9.972504545376202</v>
+        <v>6.489488841060338</v>
       </c>
       <c r="M24">
-        <v>15.13121696908757</v>
+        <v>11.27675500646849</v>
       </c>
       <c r="N24">
-        <v>21.46400790813229</v>
+        <v>13.403750653953</v>
       </c>
       <c r="O24">
-        <v>29.11884325482908</v>
+        <v>20.4449286339725</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.59138765933582</v>
+        <v>15.19416011629388</v>
       </c>
       <c r="C25">
-        <v>8.693712555539388</v>
+        <v>7.390977535898721</v>
       </c>
       <c r="D25">
-        <v>6.186037484577279</v>
+        <v>7.692921798120762</v>
       </c>
       <c r="E25">
-        <v>12.25183786855137</v>
+        <v>7.558006570554553</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.685746110127259</v>
+        <v>2.106930704844883</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.89734424562349</v>
+        <v>12.06708106285566</v>
       </c>
       <c r="L25">
-        <v>9.977735151561216</v>
+        <v>6.314569384913511</v>
       </c>
       <c r="M25">
-        <v>15.07065275427342</v>
+        <v>10.66399618562762</v>
       </c>
       <c r="N25">
-        <v>21.57254140668876</v>
+        <v>13.7955853072955</v>
       </c>
       <c r="O25">
-        <v>29.18193216302332</v>
+        <v>20.08135064981827</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.04069538505736</v>
+        <v>14.34707252913705</v>
       </c>
       <c r="C2">
-        <v>7.242720224121308</v>
+        <v>10.70069504470866</v>
       </c>
       <c r="D2">
-        <v>7.02590023063865</v>
+        <v>12.24097495124959</v>
       </c>
       <c r="E2">
-        <v>7.552557506713931</v>
+        <v>13.34591618822695</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.114714399363184</v>
+        <v>41.48806951789525</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.812752457285288</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.359689762451517</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.28262421173365</v>
       </c>
       <c r="K2">
-        <v>11.10465120659518</v>
+        <v>20.0261489373585</v>
       </c>
       <c r="L2">
-        <v>6.192840648317248</v>
+        <v>6.099666791795523</v>
       </c>
       <c r="M2">
-        <v>10.20703887681543</v>
+        <v>13.3990013933299</v>
       </c>
       <c r="N2">
-        <v>14.0934397893322</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>19.86300108225977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>14.32562792025394</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.21426256838799</v>
+        <v>13.45536578632026</v>
       </c>
       <c r="C3">
-        <v>7.140382969402014</v>
+        <v>10.01944205284697</v>
       </c>
       <c r="D3">
-        <v>6.540331334820479</v>
+        <v>11.65365180554514</v>
       </c>
       <c r="E3">
-        <v>7.555703398041535</v>
+        <v>12.63979596820693</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.12019658697906</v>
+        <v>40.2032027102534</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.099193782227067</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.555492976364651</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.1115915593026</v>
       </c>
       <c r="K3">
-        <v>10.40452148797769</v>
+        <v>19.7698818289061</v>
       </c>
       <c r="L3">
-        <v>6.114918653725433</v>
+        <v>5.864966556416443</v>
       </c>
       <c r="M3">
-        <v>9.895507043427685</v>
+        <v>12.62897710577998</v>
       </c>
       <c r="N3">
-        <v>14.3015113183095</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>19.74409009615126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>14.43722064346884</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68568002300256</v>
+        <v>12.87652669376876</v>
       </c>
       <c r="C4">
-        <v>7.076671796053543</v>
+        <v>9.584898715719914</v>
       </c>
       <c r="D4">
-        <v>6.245135764532186</v>
+        <v>11.27989987570659</v>
       </c>
       <c r="E4">
-        <v>7.560890636217867</v>
+        <v>12.18650496619013</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.123669313111462</v>
+        <v>39.40127587909804</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.281243455210751</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.680435090300468</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13.0077421266241</v>
       </c>
       <c r="K4">
-        <v>9.950926404675137</v>
+        <v>19.61280587506901</v>
       </c>
       <c r="L4">
-        <v>6.069382185251806</v>
+        <v>5.715473816851779</v>
       </c>
       <c r="M4">
-        <v>9.703987205164051</v>
+        <v>12.13413975255199</v>
       </c>
       <c r="N4">
-        <v>14.43245405851832</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>19.68480287362325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>14.5063733070015</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.46513941695498</v>
+        <v>12.62647156090386</v>
       </c>
       <c r="C5">
-        <v>7.050496302452641</v>
+        <v>9.411791454786334</v>
       </c>
       <c r="D5">
-        <v>6.133318247446629</v>
+        <v>11.12429896927586</v>
       </c>
       <c r="E5">
-        <v>7.563805811803426</v>
+        <v>11.99666632501558</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.125111915754981</v>
+        <v>39.05065249979893</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.357365365275148</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.735252734777424</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.96172914768281</v>
       </c>
       <c r="K5">
-        <v>9.760115603454956</v>
+        <v>19.5399467137909</v>
       </c>
       <c r="L5">
-        <v>6.051413275295883</v>
+        <v>5.65305264624577</v>
       </c>
       <c r="M5">
-        <v>9.625991401966317</v>
+        <v>11.92552982461123</v>
       </c>
       <c r="N5">
-        <v>14.48663246102526</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>19.66399925331013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>14.53239004113549</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.42821453024285</v>
+        <v>12.57668864438877</v>
       </c>
       <c r="C6">
-        <v>7.046137267852084</v>
+        <v>9.392560289300143</v>
       </c>
       <c r="D6">
-        <v>6.114603923946057</v>
+        <v>11.09810905878672</v>
       </c>
       <c r="E6">
-        <v>7.564337766817609</v>
+        <v>11.96454066638773</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.125353133761028</v>
+        <v>38.96667624985881</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.370534052176386</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.747879788464556</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.94921392725289</v>
       </c>
       <c r="K6">
-        <v>9.728071263066319</v>
+        <v>19.51691983809042</v>
       </c>
       <c r="L6">
-        <v>6.048465227381851</v>
+        <v>5.642392531997721</v>
       </c>
       <c r="M6">
-        <v>9.613046618038727</v>
+        <v>11.88866013055943</v>
       </c>
       <c r="N6">
-        <v>14.49567864991407</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>19.66074469144322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>14.53387866434177</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.6827262741268</v>
+        <v>12.85237440535967</v>
       </c>
       <c r="C7">
-        <v>7.076319634939927</v>
+        <v>9.608577599852319</v>
       </c>
       <c r="D7">
-        <v>6.243637687319187</v>
+        <v>11.27736976181946</v>
       </c>
       <c r="E7">
-        <v>7.560926729588586</v>
+        <v>12.18313033088148</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.123688656651968</v>
+        <v>39.32741275474581</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.28342932156728</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.69033283160823</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.99382527588275</v>
       </c>
       <c r="K7">
-        <v>9.948377223624124</v>
+        <v>19.58209762200904</v>
       </c>
       <c r="L7">
-        <v>6.069137462500334</v>
+        <v>5.714058425540751</v>
       </c>
       <c r="M7">
-        <v>9.702934973771105</v>
+        <v>12.12623171821232</v>
       </c>
       <c r="N7">
-        <v>14.43318139237372</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>19.68450884713461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>14.49900779847978</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.76022565090689</v>
+        <v>14.02060450960448</v>
       </c>
       <c r="C8">
-        <v>7.207620392256578</v>
+        <v>10.50093322596681</v>
       </c>
       <c r="D8">
-        <v>6.861935339338896</v>
+        <v>12.04072702457193</v>
       </c>
       <c r="E8">
-        <v>7.552956067305383</v>
+        <v>13.10557320473361</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.11658290830231</v>
+        <v>40.95996296883452</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.911730549901836</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.438010651867005</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.20616908325237</v>
       </c>
       <c r="K8">
-        <v>10.86816266842254</v>
+        <v>19.89912021383998</v>
       </c>
       <c r="L8">
-        <v>6.165498779473719</v>
+        <v>6.019158306017911</v>
       </c>
       <c r="M8">
-        <v>10.0997359898687</v>
+        <v>13.13179413348722</v>
       </c>
       <c r="N8">
-        <v>14.1645320015002</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>19.81909637721213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>14.35396538406038</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.69951373168509</v>
+        <v>16.09418874052388</v>
       </c>
       <c r="C9">
-        <v>7.457865021588443</v>
+        <v>12.16422238756782</v>
       </c>
       <c r="D9">
-        <v>7.98209092373747</v>
+        <v>13.42902901967545</v>
       </c>
       <c r="E9">
-        <v>7.563936875388959</v>
+        <v>14.75604252826427</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.103464990767473</v>
+        <v>44.16117906905661</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.228503942548781</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.964754537238957</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.65437718762071</v>
       </c>
       <c r="K9">
-        <v>12.48435067486212</v>
+        <v>20.57386183540638</v>
       </c>
       <c r="L9">
-        <v>6.372417228857675</v>
+        <v>6.574628819913134</v>
       </c>
       <c r="M9">
-        <v>10.87151646355297</v>
+        <v>14.93738572716822</v>
       </c>
       <c r="N9">
-        <v>13.66219461856495</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>20.19593804279441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>14.0877802174105</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.09080814721867</v>
+        <v>17.43404478775217</v>
       </c>
       <c r="C10">
-        <v>7.636996693212172</v>
+        <v>13.23457532129624</v>
       </c>
       <c r="D10">
-        <v>8.727027526645356</v>
+        <v>14.23889922499082</v>
       </c>
       <c r="E10">
-        <v>7.589302563847594</v>
+        <v>15.61177383690319</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.094281147580712</v>
+        <v>46.06831525075967</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.794174758774906</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.653276531880596</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.91590202059845</v>
       </c>
       <c r="K10">
-        <v>13.55885738052256</v>
+        <v>20.94604176187639</v>
       </c>
       <c r="L10">
-        <v>6.534871121678214</v>
+        <v>6.846395589894888</v>
       </c>
       <c r="M10">
-        <v>11.42931748286674</v>
+        <v>16.22536954967632</v>
       </c>
       <c r="N10">
-        <v>13.30691252976083</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>20.54683195919489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>13.86055817646599</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.7166394378756</v>
+        <v>17.64930274999285</v>
       </c>
       <c r="C11">
-        <v>7.717417971532299</v>
+        <v>13.06981406019765</v>
       </c>
       <c r="D11">
-        <v>9.049452035137396</v>
+        <v>13.40787519775037</v>
       </c>
       <c r="E11">
-        <v>7.604830668577971</v>
+        <v>13.80389312671044</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.09019141015561</v>
+        <v>44.01074264799656</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.794353531426637</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.606539700213935</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>13.44577059830505</v>
       </c>
       <c r="K11">
-        <v>14.02358171389741</v>
+        <v>20.13253414372049</v>
       </c>
       <c r="L11">
-        <v>6.610925656800116</v>
+        <v>6.08723183104196</v>
       </c>
       <c r="M11">
-        <v>11.68012605020302</v>
+        <v>16.32112795115669</v>
       </c>
       <c r="N11">
-        <v>13.14802505854506</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>20.72356195945933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>13.49923642110732</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.94896750150126</v>
+        <v>17.5703826116363</v>
       </c>
       <c r="C12">
-        <v>7.747715588760226</v>
+        <v>12.67790743605875</v>
       </c>
       <c r="D12">
-        <v>9.169220686025376</v>
+        <v>12.52922423253218</v>
       </c>
       <c r="E12">
-        <v>7.611303539734389</v>
+        <v>12.12063920520239</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.088654485581225</v>
+        <v>41.93867910142372</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.186468468518356</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.609298255461732</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.00901195459705</v>
       </c>
       <c r="K12">
-        <v>14.19613871046965</v>
+        <v>19.40832350332095</v>
       </c>
       <c r="L12">
-        <v>6.640025451891788</v>
+        <v>5.481529406251077</v>
       </c>
       <c r="M12">
-        <v>11.77461230530232</v>
+        <v>16.14461170686871</v>
       </c>
       <c r="N12">
-        <v>13.08823065529604</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>20.79302307995285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>13.2758539300529</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.89913778438805</v>
+        <v>17.23410097931137</v>
       </c>
       <c r="C13">
-        <v>7.741197430964821</v>
+        <v>12.10322193063656</v>
       </c>
       <c r="D13">
-        <v>9.143529196352137</v>
+        <v>11.5390587044589</v>
       </c>
       <c r="E13">
-        <v>7.609882824129333</v>
+        <v>10.40710464728674</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.088984981113298</v>
+        <v>39.59797444939321</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.624496353892404</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.6663190349849</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.54944390881</v>
       </c>
       <c r="K13">
-        <v>14.15912710836523</v>
+        <v>18.66191141648701</v>
       </c>
       <c r="L13">
-        <v>6.633745120496338</v>
+        <v>4.979463115865141</v>
       </c>
       <c r="M13">
-        <v>11.7542857322398</v>
+        <v>15.73648222113608</v>
       </c>
       <c r="N13">
-        <v>13.10109219014531</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>20.77794933478398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>13.13432631320263</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.73584625714584</v>
+        <v>16.87295560788356</v>
       </c>
       <c r="C14">
-        <v>7.719913715989203</v>
+        <v>11.61547488263439</v>
       </c>
       <c r="D14">
-        <v>9.059351871179548</v>
+        <v>10.78622893917871</v>
       </c>
       <c r="E14">
-        <v>7.605351206735521</v>
+        <v>9.203551631359925</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.090064735862515</v>
+        <v>37.80719196045508</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.643765859500073</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.733582836594537</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.21482850732016</v>
       </c>
       <c r="K14">
-        <v>14.03784647187498</v>
+        <v>18.12410340369762</v>
       </c>
       <c r="L14">
-        <v>6.613313765976618</v>
+        <v>4.711860665550008</v>
       </c>
       <c r="M14">
-        <v>11.6879096503489</v>
+        <v>15.33934593427059</v>
       </c>
       <c r="N14">
-        <v>13.14309838066436</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>20.7292252829843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.07454097659551</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.63522036935409</v>
+        <v>16.72207647872196</v>
       </c>
       <c r="C15">
-        <v>7.706856427038372</v>
+        <v>11.4630471351327</v>
       </c>
       <c r="D15">
-        <v>9.007489036213064</v>
+        <v>10.57809505777912</v>
       </c>
       <c r="E15">
-        <v>7.60265321865925</v>
+        <v>8.900387629299763</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.090727622233682</v>
+        <v>37.29258158440331</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.883010982452693</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.766756819964311</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.12494442966213</v>
       </c>
       <c r="K15">
-        <v>13.96311386995625</v>
+        <v>17.97963934054382</v>
       </c>
       <c r="L15">
-        <v>6.600837697121982</v>
+        <v>4.656281097289878</v>
       </c>
       <c r="M15">
-        <v>11.64718681554304</v>
+        <v>15.18972954849963</v>
       </c>
       <c r="N15">
-        <v>13.16887633959894</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>20.69971307471289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.07296989125097</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.04925306351413</v>
+        <v>16.18293070489192</v>
       </c>
       <c r="C16">
-        <v>7.631719241380555</v>
+        <v>11.10155693506115</v>
       </c>
       <c r="D16">
-        <v>8.705628599545244</v>
+        <v>10.38177867660634</v>
       </c>
       <c r="E16">
-        <v>7.58836966445876</v>
+        <v>8.784778273511478</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.094550118397899</v>
+        <v>36.82280174868586</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.707802476927148</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.892556940025715</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.09269293226652</v>
       </c>
       <c r="K16">
-        <v>13.52800524814776</v>
+        <v>17.94625127696059</v>
       </c>
       <c r="L16">
-        <v>6.529943240340565</v>
+        <v>4.618292867753913</v>
       </c>
       <c r="M16">
-        <v>11.41286147753563</v>
+        <v>14.710444345579</v>
       </c>
       <c r="N16">
-        <v>13.31734947054278</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>20.5356331504822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.19378070767515</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.68141475316622</v>
+        <v>15.97526573324511</v>
       </c>
       <c r="C17">
-        <v>7.58534942368734</v>
+        <v>11.0945294577493</v>
       </c>
       <c r="D17">
-        <v>8.516260862383227</v>
+        <v>10.64496290220258</v>
       </c>
       <c r="E17">
-        <v>7.580642402513899</v>
+        <v>9.344276806461206</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.096917030234124</v>
+        <v>37.43673215379072</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.00736852131512</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.954557405475664</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.24663451055283</v>
       </c>
       <c r="K17">
-        <v>13.25493969902188</v>
+        <v>18.2064710973139</v>
       </c>
       <c r="L17">
-        <v>6.486996035333815</v>
+        <v>4.715114090946933</v>
       </c>
       <c r="M17">
-        <v>11.2683071563491</v>
+        <v>14.55700366458522</v>
       </c>
       <c r="N17">
-        <v>13.40911852745511</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>20.43941288205179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.31624690763414</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.4667503879861</v>
+        <v>16.0359876515612</v>
       </c>
       <c r="C18">
-        <v>7.558578425364915</v>
+        <v>11.38059895418312</v>
       </c>
       <c r="D18">
-        <v>8.405790682823042</v>
+        <v>11.33743950485612</v>
       </c>
       <c r="E18">
-        <v>7.576572211320015</v>
+        <v>10.608447539153</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.098286758599468</v>
+        <v>39.10210420665483</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.805033928115397</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.955528171226815</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.58875642974334</v>
       </c>
       <c r="K18">
-        <v>13.09561108790459</v>
+        <v>18.7745563872136</v>
       </c>
       <c r="L18">
-        <v>6.46249721653135</v>
+        <v>5.033044641024645</v>
       </c>
       <c r="M18">
-        <v>11.18489018514599</v>
+        <v>14.67873105447686</v>
       </c>
       <c r="N18">
-        <v>13.46216004318778</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>20.38567527448804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>13.47074016758536</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.39353567042685</v>
+        <v>16.27040770891178</v>
       </c>
       <c r="C19">
-        <v>7.549497104299535</v>
+        <v>11.91365901454846</v>
       </c>
       <c r="D19">
-        <v>8.368119849642481</v>
+        <v>12.31754950707696</v>
       </c>
       <c r="E19">
-        <v>7.575257826556392</v>
+        <v>12.38516216350421</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.098751984209669</v>
+        <v>41.37023387356938</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.395170523768161</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.92419686326318</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.03826993555334</v>
       </c>
       <c r="K19">
-        <v>13.04127445756872</v>
+        <v>19.50884511781695</v>
       </c>
       <c r="L19">
-        <v>6.454237564659919</v>
+        <v>5.611520627824</v>
       </c>
       <c r="M19">
-        <v>11.15660192360387</v>
+        <v>15.0040914870699</v>
       </c>
       <c r="N19">
-        <v>13.48016397207281</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20.36775402433865</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>13.6490804669108</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.72089151738482</v>
+        <v>17.02642084068102</v>
       </c>
       <c r="C20">
-        <v>7.590295975637456</v>
+        <v>13.0165366579621</v>
       </c>
       <c r="D20">
-        <v>8.536579611728577</v>
+        <v>14.02297860315027</v>
       </c>
       <c r="E20">
-        <v>7.581426103799566</v>
+        <v>15.37823026238817</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.096664211188054</v>
+        <v>45.3713717001362</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.909180467885569</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.766854603735863</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.80556129606544</v>
       </c>
       <c r="K20">
-        <v>13.2842425173818</v>
+        <v>20.75724545531678</v>
       </c>
       <c r="L20">
-        <v>6.491546874633508</v>
+        <v>6.76990136203495</v>
       </c>
       <c r="M20">
-        <v>11.28372399765887</v>
+        <v>15.88139142355704</v>
       </c>
       <c r="N20">
-        <v>13.3993229574544</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>20.44948893531032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>13.89623042552119</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.78393492922024</v>
+        <v>18.122086465812</v>
       </c>
       <c r="C21">
-        <v>7.726169513214801</v>
+        <v>13.9104024242718</v>
       </c>
       <c r="D21">
-        <v>9.084139613284826</v>
+        <v>14.83554023055394</v>
       </c>
       <c r="E21">
-        <v>7.606666013510267</v>
+        <v>16.40230321296497</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.089747273666352</v>
+        <v>47.35736289643059</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.596923058313559</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.516278249677078</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14.11892619043068</v>
       </c>
       <c r="K21">
-        <v>14.07356213812232</v>
+        <v>21.23169405804158</v>
       </c>
       <c r="L21">
-        <v>6.61930689684316</v>
+        <v>7.138496458453695</v>
       </c>
       <c r="M21">
-        <v>11.70741968459968</v>
+        <v>16.90812920391783</v>
       </c>
       <c r="N21">
-        <v>13.13075018679528</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>20.74346725354365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>13.7750120503232</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.45156014542816</v>
+        <v>18.80390355564608</v>
       </c>
       <c r="C22">
-        <v>7.81406009483539</v>
+        <v>14.41435596730588</v>
       </c>
       <c r="D22">
-        <v>9.428460368036587</v>
+        <v>15.28182531656899</v>
       </c>
       <c r="E22">
-        <v>7.626625546026417</v>
+        <v>16.92141676402348</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.085294804120775</v>
+        <v>48.54036252247624</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.821546012058553</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.65094585452943</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>14.30593970500546</v>
       </c>
       <c r="K22">
-        <v>14.56949099574944</v>
+        <v>21.52017219443233</v>
       </c>
       <c r="L22">
-        <v>6.704547483680931</v>
+        <v>7.318907316335212</v>
       </c>
       <c r="M22">
-        <v>11.98145202269619</v>
+        <v>17.52969758622355</v>
       </c>
       <c r="N22">
-        <v>12.95738603672623</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>20.95042254453834</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>13.68997262982924</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.09769803101996</v>
+        <v>18.46074658531227</v>
       </c>
       <c r="C23">
-        <v>7.767235130765199</v>
+        <v>14.12563405500182</v>
       </c>
       <c r="D23">
-        <v>9.245915587002163</v>
+        <v>15.04532363477883</v>
       </c>
       <c r="E23">
-        <v>7.615649475462925</v>
+        <v>16.64679441519334</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.087665245121348</v>
+        <v>47.97845391115651</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.703170248175884</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.566885711730234</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>14.22027209484447</v>
       </c>
       <c r="K23">
-        <v>14.30661503565767</v>
+        <v>21.39815916715225</v>
       </c>
       <c r="L23">
-        <v>6.658896758693832</v>
+        <v>7.223626364973569</v>
       </c>
       <c r="M23">
-        <v>11.83547865462558</v>
+        <v>17.20508400560257</v>
       </c>
       <c r="N23">
-        <v>13.04972245976335</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20.83858537721501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>13.74383825328422</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.70305401044567</v>
+        <v>17.07101590708808</v>
       </c>
       <c r="C24">
-        <v>7.588059989285766</v>
+        <v>13.02879761908639</v>
       </c>
       <c r="D24">
-        <v>8.527398492183007</v>
+        <v>14.12081746474347</v>
       </c>
       <c r="E24">
-        <v>7.581070634213647</v>
+        <v>15.56825808524252</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.096778482706273</v>
+        <v>45.70815061607824</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.884189140030193</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.743998387803009</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.87534793982899</v>
       </c>
       <c r="K24">
-        <v>13.27100200331002</v>
+        <v>20.88638167357164</v>
       </c>
       <c r="L24">
-        <v>6.489488841060338</v>
+        <v>6.851535759805191</v>
       </c>
       <c r="M24">
-        <v>11.27675500646849</v>
+        <v>15.91438929880438</v>
       </c>
       <c r="N24">
-        <v>13.403750653953</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>20.4449286339725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>13.93551674792458</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.19416011629388</v>
+        <v>15.5286151699982</v>
       </c>
       <c r="C25">
-        <v>7.390977535898721</v>
+        <v>11.76413691328896</v>
       </c>
       <c r="D25">
-        <v>7.692921798120762</v>
+        <v>13.06511503427674</v>
       </c>
       <c r="E25">
-        <v>7.558006570554553</v>
+        <v>14.3257541452922</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.106930704844883</v>
+        <v>43.19600265459796</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.410344548206909</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.106190875188743</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.50939858902649</v>
       </c>
       <c r="K25">
-        <v>12.06708106285566</v>
+        <v>20.34002425359511</v>
       </c>
       <c r="L25">
-        <v>6.314569384913511</v>
+        <v>6.428265989903624</v>
       </c>
       <c r="M25">
-        <v>10.66399618562762</v>
+        <v>14.45714606896504</v>
       </c>
       <c r="N25">
-        <v>13.7955853072955</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>20.08135064981827</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>14.1459513389993</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.34707252913705</v>
+        <v>13.61608546888337</v>
       </c>
       <c r="C2">
-        <v>10.70069504470866</v>
+        <v>11.59767212206045</v>
       </c>
       <c r="D2">
-        <v>12.24097495124959</v>
+        <v>12.27617507270683</v>
       </c>
       <c r="E2">
-        <v>13.34591618822695</v>
+        <v>13.41204692674296</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>41.48806951789525</v>
+        <v>38.53477717138018</v>
       </c>
       <c r="H2">
-        <v>2.812752457285288</v>
+        <v>2.716576937961499</v>
       </c>
       <c r="I2">
-        <v>3.359689762451517</v>
+        <v>3.186755813010148</v>
       </c>
       <c r="J2">
-        <v>13.28262421173365</v>
+        <v>12.82378416046203</v>
       </c>
       <c r="K2">
-        <v>20.0261489373585</v>
+        <v>18.60891494558945</v>
       </c>
       <c r="L2">
-        <v>6.099666791795523</v>
+        <v>15.0535529136363</v>
       </c>
       <c r="M2">
-        <v>13.3990013933299</v>
+        <v>12.57841548189064</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.146251995984765</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.21533055828338</v>
       </c>
       <c r="P2">
-        <v>14.32562792025394</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.88605157757243</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.45536578632026</v>
+        <v>12.78495981139211</v>
       </c>
       <c r="C3">
-        <v>10.01944205284697</v>
+        <v>10.84237519170845</v>
       </c>
       <c r="D3">
-        <v>11.65365180554514</v>
+        <v>11.69652765042527</v>
       </c>
       <c r="E3">
-        <v>12.63979596820693</v>
+        <v>12.72046913537807</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>40.2032027102534</v>
+        <v>37.55037507098174</v>
       </c>
       <c r="H3">
-        <v>3.099193782227067</v>
+        <v>2.984937937777763</v>
       </c>
       <c r="I3">
-        <v>3.555492976364651</v>
+        <v>3.356168930040029</v>
       </c>
       <c r="J3">
-        <v>13.1115915593026</v>
+        <v>12.65489254085156</v>
       </c>
       <c r="K3">
-        <v>19.7698818289061</v>
+        <v>18.45783280080631</v>
       </c>
       <c r="L3">
-        <v>5.864966556416443</v>
+        <v>15.05882976368702</v>
       </c>
       <c r="M3">
-        <v>12.62897710577998</v>
+        <v>12.35765723834972</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.921220332901051</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.45683249139503</v>
       </c>
       <c r="P3">
-        <v>14.43722064346884</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>14.01665550512634</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.87652669376876</v>
+        <v>12.24393011916225</v>
       </c>
       <c r="C4">
-        <v>9.584898715719914</v>
+        <v>10.36048068133888</v>
       </c>
       <c r="D4">
-        <v>11.27989987570659</v>
+        <v>11.32787964113128</v>
       </c>
       <c r="E4">
-        <v>12.18650496619013</v>
+        <v>12.27686867430957</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>39.40127587909804</v>
+        <v>36.94043080177664</v>
       </c>
       <c r="H4">
-        <v>3.281243455210751</v>
+        <v>3.155649237107185</v>
       </c>
       <c r="I4">
-        <v>3.680435090300468</v>
+        <v>3.464668895083098</v>
       </c>
       <c r="J4">
-        <v>13.0077421266241</v>
+        <v>12.5497334895628</v>
       </c>
       <c r="K4">
-        <v>19.61280587506901</v>
+        <v>18.36478509452586</v>
       </c>
       <c r="L4">
-        <v>5.715473816851779</v>
+        <v>15.0580085927703</v>
       </c>
       <c r="M4">
-        <v>12.13413975255199</v>
+        <v>12.23798062315263</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.777996964109825</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.96847408087588</v>
       </c>
       <c r="P4">
-        <v>14.5063733070015</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.09739394140615</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.62647156090386</v>
+        <v>12.00961495195243</v>
       </c>
       <c r="C5">
-        <v>9.411791454786334</v>
+        <v>10.16727605335084</v>
       </c>
       <c r="D5">
-        <v>11.12429896927586</v>
+        <v>11.17447457797524</v>
       </c>
       <c r="E5">
-        <v>11.99666632501558</v>
+        <v>12.09120340467696</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>39.05065249979893</v>
+        <v>36.6709778096664</v>
       </c>
       <c r="H5">
-        <v>3.357365365275148</v>
+        <v>3.227055216727486</v>
       </c>
       <c r="I5">
-        <v>3.735252734777424</v>
+        <v>3.513150767366949</v>
       </c>
       <c r="J5">
-        <v>12.96172914768281</v>
+        <v>12.50266486638611</v>
       </c>
       <c r="K5">
-        <v>19.5399467137909</v>
+        <v>18.31854992174527</v>
       </c>
       <c r="L5">
-        <v>5.65305264624577</v>
+        <v>15.04950540173801</v>
       </c>
       <c r="M5">
-        <v>11.92552982461123</v>
+        <v>12.18800681181761</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.718231765727952</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.76239179153977</v>
       </c>
       <c r="P5">
-        <v>14.53239004113549</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.12851484139072</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.57668864438877</v>
+        <v>11.9627139854398</v>
       </c>
       <c r="C6">
-        <v>9.392560289300143</v>
+        <v>10.14423193698523</v>
       </c>
       <c r="D6">
-        <v>11.09810905878672</v>
+        <v>11.14867000803011</v>
       </c>
       <c r="E6">
-        <v>11.96454066638773</v>
+        <v>12.05980831726769</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>38.96667624985881</v>
+        <v>36.60206466951807</v>
       </c>
       <c r="H6">
-        <v>3.370534052176386</v>
+        <v>3.239397783289948</v>
       </c>
       <c r="I6">
-        <v>3.747879788464556</v>
+        <v>3.525289423293628</v>
       </c>
       <c r="J6">
-        <v>12.94921392725289</v>
+        <v>12.49009618675036</v>
       </c>
       <c r="K6">
-        <v>19.51691983809042</v>
+        <v>18.30079184151418</v>
       </c>
       <c r="L6">
-        <v>5.642392531997721</v>
+        <v>15.03931638597952</v>
       </c>
       <c r="M6">
-        <v>11.88866013055943</v>
+        <v>12.17342857208951</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.708036465425352</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.72599506241751</v>
       </c>
       <c r="P6">
-        <v>14.53387866434177</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.13133965642561</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.85237440535967</v>
+        <v>12.21548494155386</v>
       </c>
       <c r="C7">
-        <v>9.608577599852319</v>
+        <v>10.36860518297416</v>
       </c>
       <c r="D7">
-        <v>11.27736976181946</v>
+        <v>11.32511870341038</v>
       </c>
       <c r="E7">
-        <v>12.18313033088148</v>
+        <v>12.27305309279543</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>39.32741275474581</v>
+        <v>36.93874148225675</v>
       </c>
       <c r="H7">
-        <v>3.28342932156728</v>
+        <v>3.158444661289662</v>
       </c>
       <c r="I7">
-        <v>3.69033283160823</v>
+        <v>3.476713484765299</v>
       </c>
       <c r="J7">
-        <v>12.99382527588275</v>
+        <v>12.48532802931162</v>
       </c>
       <c r="K7">
-        <v>19.58209762200904</v>
+        <v>18.32424858546191</v>
       </c>
       <c r="L7">
-        <v>5.714058425540751</v>
+        <v>15.02388370407996</v>
       </c>
       <c r="M7">
-        <v>12.12623171821232</v>
+        <v>12.21079350617597</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.776278374940924</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.95287729531965</v>
       </c>
       <c r="P7">
-        <v>14.49900779847978</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.08816198785853</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.02060450960448</v>
+        <v>13.29522812470883</v>
       </c>
       <c r="C8">
-        <v>10.50093322596681</v>
+        <v>11.32800721551745</v>
       </c>
       <c r="D8">
-        <v>12.04072702457193</v>
+        <v>12.07765319969595</v>
       </c>
       <c r="E8">
-        <v>13.10557320473361</v>
+        <v>13.1749740455547</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>40.95996296883452</v>
+        <v>38.33074826503803</v>
       </c>
       <c r="H8">
-        <v>2.911730549901836</v>
+        <v>2.811641552621109</v>
       </c>
       <c r="I8">
-        <v>3.438010651867005</v>
+        <v>3.260252616239689</v>
       </c>
       <c r="J8">
-        <v>13.20616908325237</v>
+        <v>12.58398406875849</v>
       </c>
       <c r="K8">
-        <v>19.89912021383998</v>
+        <v>18.48066252149684</v>
       </c>
       <c r="L8">
-        <v>6.019158306017911</v>
+        <v>14.99427002738113</v>
       </c>
       <c r="M8">
-        <v>13.13179413348722</v>
+        <v>12.44496239941938</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.06789702154862</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.92796883030366</v>
       </c>
       <c r="P8">
-        <v>14.35396538406038</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.91239111712526</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.09418874052388</v>
+        <v>15.2769731937294</v>
       </c>
       <c r="C9">
-        <v>12.16422238756782</v>
+        <v>13.07380690744402</v>
       </c>
       <c r="D9">
-        <v>13.42902901967545</v>
+        <v>13.44856753757769</v>
       </c>
       <c r="E9">
-        <v>14.75604252826427</v>
+        <v>14.79261841232837</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>44.16117906905661</v>
+        <v>40.87030796954628</v>
       </c>
       <c r="H9">
-        <v>2.228503942548781</v>
+        <v>2.172917504385639</v>
       </c>
       <c r="I9">
-        <v>2.964754537238957</v>
+        <v>2.850528559306972</v>
       </c>
       <c r="J9">
-        <v>13.65437718762071</v>
+        <v>12.9722561709342</v>
       </c>
       <c r="K9">
-        <v>20.57386183540638</v>
+        <v>18.8788710955534</v>
       </c>
       <c r="L9">
-        <v>6.574628819913134</v>
+        <v>14.9814159394854</v>
       </c>
       <c r="M9">
-        <v>14.93738572716822</v>
+        <v>13.08872652161562</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.600769356961433</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.73865212500893</v>
       </c>
       <c r="P9">
-        <v>14.0877802174105</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.59420910991242</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.43404478775217</v>
+        <v>16.53449361624567</v>
       </c>
       <c r="C10">
-        <v>13.23457532129624</v>
+        <v>14.17876588018142</v>
       </c>
       <c r="D10">
-        <v>14.23889922499082</v>
+        <v>14.24616438693366</v>
       </c>
       <c r="E10">
-        <v>15.61177383690319</v>
+        <v>15.62540106193597</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>46.06831525075967</v>
+        <v>42.72216661406524</v>
       </c>
       <c r="H10">
-        <v>1.794174758774906</v>
+        <v>1.773167626030052</v>
       </c>
       <c r="I10">
-        <v>2.653276531880596</v>
+        <v>2.588154764626709</v>
       </c>
       <c r="J10">
-        <v>13.91590202059845</v>
+        <v>12.91427143951322</v>
       </c>
       <c r="K10">
-        <v>20.94604176187639</v>
+        <v>19.00091192636602</v>
       </c>
       <c r="L10">
-        <v>6.846395589894888</v>
+        <v>14.82788909344564</v>
       </c>
       <c r="M10">
-        <v>16.22536954967632</v>
+        <v>13.4908589087978</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.856235326738968</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.95204900710168</v>
       </c>
       <c r="P10">
-        <v>13.86055817646599</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.32206076562854</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.64930274999285</v>
+        <v>16.72568657167074</v>
       </c>
       <c r="C11">
-        <v>13.06981406019765</v>
+        <v>13.83865804485674</v>
       </c>
       <c r="D11">
-        <v>13.40787519775037</v>
+        <v>13.41095139374241</v>
       </c>
       <c r="E11">
-        <v>13.80389312671044</v>
+        <v>13.80998727295618</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.01074264799656</v>
+        <v>41.54041469758407</v>
       </c>
       <c r="H11">
-        <v>2.794353531426637</v>
+        <v>2.788584738596626</v>
       </c>
       <c r="I11">
-        <v>2.606539700213935</v>
+        <v>2.560655237427696</v>
       </c>
       <c r="J11">
-        <v>13.44577059830505</v>
+        <v>11.94739627710174</v>
       </c>
       <c r="K11">
-        <v>20.13253414372049</v>
+        <v>18.13642022685925</v>
       </c>
       <c r="L11">
-        <v>6.08723183104196</v>
+        <v>14.08769513344973</v>
       </c>
       <c r="M11">
-        <v>16.32112795115669</v>
+        <v>12.95138981646368</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.091761223936852</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.97719797790031</v>
       </c>
       <c r="P11">
-        <v>13.49923642110732</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.01190263549017</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.5703826116363</v>
+        <v>16.66842749116429</v>
       </c>
       <c r="C12">
-        <v>12.67790743605875</v>
+        <v>13.32633114129994</v>
       </c>
       <c r="D12">
-        <v>12.52922423253218</v>
+        <v>12.53182499406738</v>
       </c>
       <c r="E12">
-        <v>12.12063920520239</v>
+        <v>12.12609766595936</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>41.93867910142372</v>
+        <v>39.99452239238538</v>
       </c>
       <c r="H12">
-        <v>4.186468468518356</v>
+        <v>4.18310555097329</v>
       </c>
       <c r="I12">
-        <v>2.609298255461732</v>
+        <v>2.564819371226322</v>
       </c>
       <c r="J12">
-        <v>13.00901195459705</v>
+        <v>11.35083115164568</v>
       </c>
       <c r="K12">
-        <v>19.40832350332095</v>
+        <v>17.46608275757367</v>
       </c>
       <c r="L12">
-        <v>5.481529406251077</v>
+        <v>13.56912244159117</v>
       </c>
       <c r="M12">
-        <v>16.14461170686871</v>
+        <v>12.46566912451719</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.485622163108376</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.77745379160671</v>
       </c>
       <c r="P12">
-        <v>13.2758539300529</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.85275766248596</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.23410097931137</v>
+        <v>16.40231980754798</v>
       </c>
       <c r="C13">
-        <v>12.10322193063656</v>
+        <v>12.68770867696624</v>
       </c>
       <c r="D13">
-        <v>11.5390587044589</v>
+        <v>11.54443008996378</v>
       </c>
       <c r="E13">
-        <v>10.40710464728674</v>
+        <v>10.41917266515322</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>39.59797444939321</v>
+        <v>37.80302267857731</v>
       </c>
       <c r="H13">
-        <v>5.624496353892404</v>
+        <v>5.619081157956034</v>
       </c>
       <c r="I13">
-        <v>2.6663190349849</v>
+        <v>2.611280400425056</v>
       </c>
       <c r="J13">
-        <v>12.54944390881</v>
+        <v>11.05316215548915</v>
       </c>
       <c r="K13">
-        <v>18.66191141648701</v>
+        <v>16.88558419218287</v>
       </c>
       <c r="L13">
-        <v>4.979463115865141</v>
+        <v>13.16400469909117</v>
       </c>
       <c r="M13">
-        <v>15.73648222113608</v>
+        <v>11.9830202874299</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.988330360173315</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.3958653337072</v>
       </c>
       <c r="P13">
-        <v>13.13432631320263</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.78685497337184</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.87295560788356</v>
+        <v>16.11304522238528</v>
       </c>
       <c r="C14">
-        <v>11.61547488263439</v>
+        <v>12.17818074918753</v>
       </c>
       <c r="D14">
-        <v>10.78622893917871</v>
+        <v>10.7950492573222</v>
       </c>
       <c r="E14">
-        <v>9.203551631359925</v>
+        <v>9.224498113115292</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>37.80719196045508</v>
+        <v>35.96018619345021</v>
       </c>
       <c r="H14">
-        <v>6.643765859500073</v>
+        <v>6.635986467459687</v>
       </c>
       <c r="I14">
-        <v>2.733582836594537</v>
+        <v>2.666490187127908</v>
       </c>
       <c r="J14">
-        <v>12.21482850732016</v>
+        <v>10.95765084922305</v>
       </c>
       <c r="K14">
-        <v>18.12410340369762</v>
+        <v>16.5108183282557</v>
       </c>
       <c r="L14">
-        <v>4.711860665550008</v>
+        <v>12.92094437844066</v>
       </c>
       <c r="M14">
-        <v>15.33934593427059</v>
+        <v>11.6424811941347</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.726633606417298</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.03953137360982</v>
       </c>
       <c r="P14">
-        <v>13.07454097659551</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.77992791302612</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.72207647872196</v>
+        <v>15.98985919696857</v>
       </c>
       <c r="C15">
-        <v>11.4630471351327</v>
+        <v>12.03025927641892</v>
       </c>
       <c r="D15">
-        <v>10.57809505777912</v>
+        <v>10.58848995079532</v>
       </c>
       <c r="E15">
-        <v>8.900387629299763</v>
+        <v>8.925424046210157</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>37.29258158440331</v>
+        <v>35.36924411455951</v>
       </c>
       <c r="H15">
-        <v>6.883010982452693</v>
+        <v>6.874046246155147</v>
       </c>
       <c r="I15">
-        <v>2.766756819964311</v>
+        <v>2.695002325518194</v>
       </c>
       <c r="J15">
-        <v>12.12494442966213</v>
+        <v>10.97881251553033</v>
       </c>
       <c r="K15">
-        <v>17.97963934054382</v>
+        <v>16.42647989593089</v>
       </c>
       <c r="L15">
-        <v>4.656281097289878</v>
+        <v>12.87396710948379</v>
       </c>
       <c r="M15">
-        <v>15.18972954849963</v>
+        <v>11.55321675235894</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.673672138904019</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.90957271601513</v>
       </c>
       <c r="P15">
-        <v>13.07296989125097</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.7919225093284</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.18293070489192</v>
+        <v>15.53590277161871</v>
       </c>
       <c r="C16">
-        <v>11.10155693506115</v>
+        <v>11.75100010472507</v>
       </c>
       <c r="D16">
-        <v>10.38177867660634</v>
+        <v>10.39880188467036</v>
       </c>
       <c r="E16">
-        <v>8.784778273511478</v>
+        <v>8.82551081822835</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>36.82280174868586</v>
+        <v>34.38360501617875</v>
       </c>
       <c r="H16">
-        <v>6.707802476927148</v>
+        <v>6.691769439014915</v>
       </c>
       <c r="I16">
-        <v>2.892556940025715</v>
+        <v>2.798257770896491</v>
       </c>
       <c r="J16">
-        <v>12.09269293226652</v>
+        <v>11.39246597788483</v>
       </c>
       <c r="K16">
-        <v>17.94625127696059</v>
+        <v>16.5581425906433</v>
       </c>
       <c r="L16">
-        <v>4.618292867753913</v>
+        <v>13.03903796451567</v>
       </c>
       <c r="M16">
-        <v>14.710444345579</v>
+        <v>11.54831994134911</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.646327968820975</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.51161320755856</v>
       </c>
       <c r="P16">
-        <v>13.19378070767515</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.91838988430675</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.97526573324511</v>
+        <v>15.33447001933777</v>
       </c>
       <c r="C17">
-        <v>11.0945294577493</v>
+        <v>11.80422234887546</v>
       </c>
       <c r="D17">
-        <v>10.64496290220258</v>
+        <v>10.66489052564907</v>
       </c>
       <c r="E17">
-        <v>9.344276806461206</v>
+        <v>9.390213587429162</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>37.43673215379072</v>
+        <v>34.71376280941982</v>
       </c>
       <c r="H17">
-        <v>6.00736852131512</v>
+        <v>5.985691002079025</v>
       </c>
       <c r="I17">
-        <v>2.954557405475664</v>
+        <v>2.850172312757473</v>
       </c>
       <c r="J17">
-        <v>12.24663451055283</v>
+        <v>11.71951859993182</v>
       </c>
       <c r="K17">
-        <v>18.2064710973139</v>
+        <v>16.84605505723533</v>
       </c>
       <c r="L17">
-        <v>4.715114090946933</v>
+        <v>13.29379994982133</v>
       </c>
       <c r="M17">
-        <v>14.55700366458522</v>
+        <v>11.71174868774227</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.747468145179957</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.38944799658824</v>
       </c>
       <c r="P17">
-        <v>13.31624690763414</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.02174689512999</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.0359876515612</v>
+        <v>15.35787299026357</v>
       </c>
       <c r="C18">
-        <v>11.38059895418312</v>
+        <v>12.16091782065262</v>
       </c>
       <c r="D18">
-        <v>11.33743950485612</v>
+        <v>11.35756437675363</v>
       </c>
       <c r="E18">
-        <v>10.608447539153</v>
+        <v>10.65203351096745</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>39.10210420665483</v>
+        <v>36.12082911867526</v>
       </c>
       <c r="H18">
-        <v>4.805033928115397</v>
+        <v>4.77747324137877</v>
       </c>
       <c r="I18">
-        <v>2.955528171226815</v>
+        <v>2.848060078548436</v>
       </c>
       <c r="J18">
-        <v>12.58875642974334</v>
+        <v>12.10439899885257</v>
       </c>
       <c r="K18">
-        <v>18.7745563872136</v>
+        <v>17.34921222728468</v>
       </c>
       <c r="L18">
-        <v>5.033044641024645</v>
+        <v>13.69446275401431</v>
       </c>
       <c r="M18">
-        <v>14.67873105447686</v>
+        <v>12.0690357241691</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.064726635347079</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.51498156421145</v>
       </c>
       <c r="P18">
-        <v>13.47074016758536</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.13338683737315</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.27040770891178</v>
+        <v>15.53507510080309</v>
       </c>
       <c r="C19">
-        <v>11.91365901454846</v>
+        <v>12.77453359905734</v>
       </c>
       <c r="D19">
-        <v>12.31754950707696</v>
+        <v>12.33590012405479</v>
       </c>
       <c r="E19">
-        <v>12.38516216350421</v>
+        <v>12.42231303244663</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.37023387356938</v>
+        <v>38.12282556426178</v>
       </c>
       <c r="H19">
-        <v>3.395170523768161</v>
+        <v>3.360627008505377</v>
       </c>
       <c r="I19">
-        <v>2.92419686326318</v>
+        <v>2.823307825118762</v>
       </c>
       <c r="J19">
-        <v>13.03826993555334</v>
+        <v>12.5257391715898</v>
       </c>
       <c r="K19">
-        <v>19.50884511781695</v>
+        <v>17.96228394173252</v>
       </c>
       <c r="L19">
-        <v>5.611520627824</v>
+        <v>14.16447785507376</v>
       </c>
       <c r="M19">
-        <v>15.0040914870699</v>
+        <v>12.53277492010616</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.638819314422629</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.82769920963729</v>
       </c>
       <c r="P19">
-        <v>13.6490804669108</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.2528883240548</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.02642084068102</v>
+        <v>16.17989455216111</v>
       </c>
       <c r="C20">
-        <v>13.0165366579621</v>
+        <v>13.98536131915158</v>
       </c>
       <c r="D20">
-        <v>14.02297860315027</v>
+        <v>14.03429024879183</v>
       </c>
       <c r="E20">
-        <v>15.37823026238817</v>
+        <v>15.39944376817587</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>45.3713717001362</v>
+        <v>41.83208043468117</v>
       </c>
       <c r="H20">
-        <v>1.909180467885569</v>
+        <v>1.876546847492193</v>
       </c>
       <c r="I20">
-        <v>2.766854603735863</v>
+        <v>2.692252513345404</v>
       </c>
       <c r="J20">
-        <v>13.80556129606544</v>
+        <v>13.05895439423896</v>
       </c>
       <c r="K20">
-        <v>20.75724545531678</v>
+        <v>18.92778432596469</v>
       </c>
       <c r="L20">
-        <v>6.76990136203495</v>
+        <v>14.8381330839961</v>
       </c>
       <c r="M20">
-        <v>15.88139142355704</v>
+        <v>13.35017723331397</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.785185905252394</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.64993895798344</v>
       </c>
       <c r="P20">
-        <v>13.89623042552119</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.38567674011249</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.122086465812</v>
+        <v>17.08513362893857</v>
       </c>
       <c r="C21">
-        <v>13.9104024242718</v>
+        <v>14.7323103937726</v>
       </c>
       <c r="D21">
-        <v>14.83554023055394</v>
+        <v>14.83346087297685</v>
       </c>
       <c r="E21">
-        <v>16.40230321296497</v>
+        <v>16.39843378814728</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.35736289643059</v>
+        <v>44.864376076002</v>
       </c>
       <c r="H21">
-        <v>1.596923058313559</v>
+        <v>1.590955263515016</v>
       </c>
       <c r="I21">
-        <v>2.516278249677078</v>
+        <v>2.547563473686454</v>
       </c>
       <c r="J21">
-        <v>14.11892619043068</v>
+        <v>12.25659644002595</v>
       </c>
       <c r="K21">
-        <v>21.23169405804158</v>
+        <v>18.961524878309</v>
       </c>
       <c r="L21">
-        <v>7.138496458453695</v>
+        <v>14.67854438983796</v>
       </c>
       <c r="M21">
-        <v>16.90812920391783</v>
+        <v>13.62282676763771</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.135705422059068</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.50588017527998</v>
       </c>
       <c r="P21">
-        <v>13.7750120503232</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.15985280530215</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.80390355564608</v>
+        <v>17.64584888769512</v>
       </c>
       <c r="C22">
-        <v>14.41435596730588</v>
+        <v>15.12757075691569</v>
       </c>
       <c r="D22">
-        <v>15.28182531656899</v>
+        <v>15.27139528137223</v>
       </c>
       <c r="E22">
-        <v>16.92141676402348</v>
+        <v>16.90205125752737</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>48.54036252247624</v>
+        <v>46.83194488539802</v>
       </c>
       <c r="H22">
-        <v>1.821546012058553</v>
+        <v>1.791383183014457</v>
       </c>
       <c r="I22">
-        <v>2.65094585452943</v>
+        <v>2.664957171957354</v>
       </c>
       <c r="J22">
-        <v>14.30593970500546</v>
+        <v>11.68327728790523</v>
       </c>
       <c r="K22">
-        <v>21.52017219443233</v>
+        <v>18.95267618248814</v>
       </c>
       <c r="L22">
-        <v>7.318907316335212</v>
+        <v>14.55186889067302</v>
       </c>
       <c r="M22">
-        <v>17.52969758622355</v>
+        <v>13.78291373238357</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.304918541413286</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.01388230434037</v>
       </c>
       <c r="P22">
-        <v>13.68997262982924</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.00530395612803</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.46074658531227</v>
+        <v>17.37610943861709</v>
       </c>
       <c r="C23">
-        <v>14.12563405500182</v>
+        <v>14.92394594929209</v>
       </c>
       <c r="D23">
-        <v>15.04532363477883</v>
+        <v>15.03973574092825</v>
       </c>
       <c r="E23">
-        <v>16.64679441519334</v>
+        <v>16.6364059511577</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>47.97845391115651</v>
+        <v>45.68917613835344</v>
       </c>
       <c r="H23">
-        <v>1.703170248175884</v>
+        <v>1.687074210723439</v>
       </c>
       <c r="I23">
-        <v>2.566885711730234</v>
+        <v>2.597019890737187</v>
       </c>
       <c r="J23">
-        <v>14.22027209484447</v>
+        <v>12.11219672224033</v>
       </c>
       <c r="K23">
-        <v>21.39815916715225</v>
+        <v>19.01654964066162</v>
       </c>
       <c r="L23">
-        <v>7.223626364973569</v>
+        <v>14.66154864766055</v>
       </c>
       <c r="M23">
-        <v>17.20508400560257</v>
+        <v>13.74436291682905</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.216127963965023</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.76446642664859</v>
       </c>
       <c r="P23">
-        <v>13.74383825328422</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.10094265991691</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.07101590708808</v>
+        <v>16.21852168874499</v>
       </c>
       <c r="C24">
-        <v>13.02879761908639</v>
+        <v>14.00758812699799</v>
       </c>
       <c r="D24">
-        <v>14.12081746474347</v>
+        <v>14.13195391684116</v>
       </c>
       <c r="E24">
-        <v>15.56825808524252</v>
+        <v>15.5890518184912</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>45.70815061607824</v>
+        <v>42.12954316441334</v>
       </c>
       <c r="H24">
-        <v>1.884189140030193</v>
+        <v>1.851929667098049</v>
       </c>
       <c r="I24">
-        <v>2.743998387803009</v>
+        <v>2.666307392619739</v>
       </c>
       <c r="J24">
-        <v>13.87534793982899</v>
+        <v>13.13090558839273</v>
       </c>
       <c r="K24">
-        <v>20.88638167357164</v>
+        <v>19.04223658444614</v>
       </c>
       <c r="L24">
-        <v>6.851535759805191</v>
+        <v>14.92661677210793</v>
       </c>
       <c r="M24">
-        <v>15.91438929880438</v>
+        <v>13.43538017214144</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.866476527681592</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.68231903378079</v>
       </c>
       <c r="P24">
-        <v>13.93551674792458</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.41506996486812</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.5286151699982</v>
+        <v>14.73467006631015</v>
       </c>
       <c r="C25">
-        <v>11.76413691328896</v>
+        <v>12.67209318893519</v>
       </c>
       <c r="D25">
-        <v>13.06511503427674</v>
+        <v>13.08950447794837</v>
       </c>
       <c r="E25">
-        <v>14.3257541452922</v>
+        <v>14.37146074196584</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>43.19600265459796</v>
+        <v>39.99304397128245</v>
       </c>
       <c r="H25">
-        <v>2.410344548206909</v>
+        <v>2.34171120597517</v>
       </c>
       <c r="I25">
-        <v>3.106190875188743</v>
+        <v>2.97690107952764</v>
       </c>
       <c r="J25">
-        <v>13.50939858902649</v>
+        <v>12.91609142473107</v>
       </c>
       <c r="K25">
-        <v>20.34002425359511</v>
+        <v>18.74148893508111</v>
       </c>
       <c r="L25">
-        <v>6.428265989903624</v>
+        <v>14.9653261589404</v>
       </c>
       <c r="M25">
-        <v>14.45714606896504</v>
+        <v>12.88023048824166</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.460816672334898</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.23794872226868</v>
       </c>
       <c r="P25">
-        <v>14.1459513389993</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.67387934432329</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
